--- a/Datasets/short_IC_10_20ndx1521.xlsx
+++ b/Datasets/short_IC_10_20ndx1521.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://refinitiv-my.sharepoint.com/personal/haykaz_aramyan_refinitiv_com/Documents/Projects/Options/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_11F140FE047C504EE4296495425DCE3A8744C98A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2060E2BD-3150-4B9F-BF50-E7FEC72888CD}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_11F140FE047C504EE4296495425DCE3A8744C98A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6C9B9C84-F694-4D30-9DAE-8D686FEA44C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="308">
   <si>
     <t>RIC</t>
   </si>
@@ -932,6 +932,18 @@
   </si>
   <si>
     <t>NDXv1521A4050.U^J21</t>
+  </si>
+  <si>
+    <t>NDXd181978750.U^D19</t>
+  </si>
+  <si>
+    <t>NDXp181957250.U^D19</t>
+  </si>
+  <si>
+    <t>NDXd181986000.U^D19</t>
+  </si>
+  <si>
+    <t>NDXp181964250.U^D19</t>
   </si>
 </sst>
 </file>
@@ -1298,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P355"/>
+  <dimension ref="A1:P359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="I206" sqref="I206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11208,16 +11220,16 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B204" t="s">
-        <v>181</v>
+        <v>304</v>
       </c>
       <c r="C204" s="2">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="D204" s="2">
-        <v>43602</v>
+        <v>43573</v>
       </c>
       <c r="E204" t="s">
         <v>16</v>
@@ -11226,31 +11238,31 @@
         <v>17</v>
       </c>
       <c r="G204">
-        <v>8225</v>
+        <v>7875</v>
       </c>
       <c r="H204">
-        <v>7478.4160000000002</v>
+        <v>7151.5720000000001</v>
       </c>
       <c r="I204">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="J204">
-        <v>9.98</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="K204" s="2">
-        <v>43602</v>
+        <v>43573</v>
       </c>
       <c r="L204">
-        <v>7503.68</v>
+        <v>7689.7150000000001</v>
       </c>
       <c r="M204">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="N204" t="s">
         <v>18</v>
       </c>
       <c r="O204">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="P204" t="s">
         <v>19</v>
@@ -11261,13 +11273,13 @@
         <v>15</v>
       </c>
       <c r="B205" t="s">
-        <v>182</v>
+        <v>305</v>
       </c>
       <c r="C205" s="2">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="D205" s="2">
-        <v>43602</v>
+        <v>43573</v>
       </c>
       <c r="E205" t="s">
         <v>21</v>
@@ -11276,31 +11288,31 @@
         <v>22</v>
       </c>
       <c r="G205">
-        <v>5975</v>
+        <v>5725</v>
       </c>
       <c r="H205">
-        <v>7478.4160000000002</v>
+        <v>7151.5720000000001</v>
       </c>
       <c r="I205">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="J205">
-        <v>20.100000000000001</v>
+        <v>19.95</v>
       </c>
       <c r="K205" s="2">
-        <v>43602</v>
+        <v>43573</v>
       </c>
       <c r="L205">
-        <v>7503.68</v>
+        <v>7689.7150000000001</v>
       </c>
       <c r="M205">
-        <v>-355</v>
+        <v>-450</v>
       </c>
       <c r="N205" t="s">
         <v>18</v>
       </c>
       <c r="O205">
-        <v>-355</v>
+        <v>-450</v>
       </c>
       <c r="P205" t="s">
         <v>19</v>
@@ -11308,16 +11320,16 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="C206" s="2">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="D206" s="2">
-        <v>43602</v>
+        <v>43573</v>
       </c>
       <c r="E206" t="s">
         <v>16</v>
@@ -11326,31 +11338,31 @@
         <v>22</v>
       </c>
       <c r="G206">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="H206">
-        <v>7478.4160000000002</v>
+        <v>7151.5720000000001</v>
       </c>
       <c r="I206">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="J206">
-        <v>20.350000000000001</v>
+        <v>20.25</v>
       </c>
       <c r="K206" s="2">
-        <v>43602</v>
+        <v>43573</v>
       </c>
       <c r="L206">
-        <v>7503.68</v>
+        <v>7689.7150000000001</v>
       </c>
       <c r="M206">
-        <v>-16</v>
+        <v>-60</v>
       </c>
       <c r="N206" t="s">
         <v>18</v>
       </c>
       <c r="O206">
-        <v>-16</v>
+        <v>-60</v>
       </c>
       <c r="P206" t="s">
         <v>19</v>
@@ -11361,13 +11373,13 @@
         <v>15</v>
       </c>
       <c r="B207" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="C207" s="2">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="D207" s="2">
-        <v>43602</v>
+        <v>43573</v>
       </c>
       <c r="E207" t="s">
         <v>21</v>
@@ -11376,31 +11388,31 @@
         <v>17</v>
       </c>
       <c r="G207">
-        <v>6725</v>
+        <v>6425</v>
       </c>
       <c r="H207">
-        <v>7478.4160000000002</v>
+        <v>7151.5720000000001</v>
       </c>
       <c r="I207">
-        <v>22.19</v>
+        <v>22.05</v>
       </c>
       <c r="J207">
-        <v>10.07</v>
+        <v>10.16</v>
       </c>
       <c r="K207" s="2">
-        <v>43602</v>
+        <v>43573</v>
       </c>
       <c r="L207">
-        <v>7503.68</v>
+        <v>7689.7150000000001</v>
       </c>
       <c r="M207">
-        <v>2219</v>
+        <v>2205</v>
       </c>
       <c r="N207" t="s">
         <v>18</v>
       </c>
       <c r="O207">
-        <v>2219</v>
+        <v>2205</v>
       </c>
       <c r="P207" t="s">
         <v>19</v>
@@ -11408,16 +11420,16 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B208" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C208" s="2">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="D208" s="2">
-        <v>43637</v>
+        <v>43602</v>
       </c>
       <c r="E208" t="s">
         <v>16</v>
@@ -11426,31 +11438,31 @@
         <v>17</v>
       </c>
       <c r="G208">
-        <v>8525</v>
+        <v>8225</v>
       </c>
       <c r="H208">
-        <v>7751.8469999999998</v>
+        <v>7478.4160000000002</v>
       </c>
       <c r="I208">
-        <v>4.6500000000000004</v>
+        <v>1.55</v>
       </c>
       <c r="J208">
-        <v>9.9700000000000006</v>
+        <v>9.98</v>
       </c>
       <c r="K208" s="2">
-        <v>43592</v>
+        <v>43602</v>
       </c>
       <c r="L208">
-        <v>7640.1490000000003</v>
+        <v>7503.68</v>
       </c>
       <c r="M208">
-        <v>465.00000000000011</v>
+        <v>155</v>
       </c>
       <c r="N208" t="s">
         <v>18</v>
       </c>
       <c r="O208">
-        <v>465.00000000000011</v>
+        <v>155</v>
       </c>
       <c r="P208" t="s">
         <v>19</v>
@@ -11458,16 +11470,16 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C209" s="2">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="D209" s="2">
-        <v>43637</v>
+        <v>43602</v>
       </c>
       <c r="E209" t="s">
         <v>21</v>
@@ -11476,31 +11488,31 @@
         <v>22</v>
       </c>
       <c r="G209">
-        <v>6200</v>
+        <v>5975</v>
       </c>
       <c r="H209">
-        <v>7751.8469999999998</v>
+        <v>7478.4160000000002</v>
       </c>
       <c r="I209">
-        <v>7.4</v>
+        <v>3.55</v>
       </c>
       <c r="J209">
-        <v>20.02</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="K209" s="2">
-        <v>43592</v>
+        <v>43602</v>
       </c>
       <c r="L209">
-        <v>7640.1490000000003</v>
+        <v>7503.68</v>
       </c>
       <c r="M209">
-        <v>-740</v>
+        <v>-355</v>
       </c>
       <c r="N209" t="s">
         <v>18</v>
       </c>
       <c r="O209">
-        <v>-740</v>
+        <v>-355</v>
       </c>
       <c r="P209" t="s">
         <v>19</v>
@@ -11508,43 +11520,49 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B210" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C210" s="2">
-        <v>43592</v>
+        <v>43556</v>
       </c>
       <c r="D210" s="2">
-        <v>43637</v>
+        <v>43602</v>
       </c>
       <c r="E210" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F210" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G210">
-        <v>6200</v>
+        <v>9000</v>
+      </c>
+      <c r="H210">
+        <v>7478.4160000000002</v>
       </c>
       <c r="I210">
-        <v>15.65</v>
+        <v>0.16</v>
+      </c>
+      <c r="J210">
+        <v>20.350000000000001</v>
       </c>
       <c r="K210" s="2">
-        <v>43592</v>
+        <v>43602</v>
       </c>
       <c r="L210">
-        <v>7640.1490000000003</v>
+        <v>7503.68</v>
       </c>
       <c r="M210">
-        <v>1565</v>
+        <v>-16</v>
       </c>
       <c r="N210" t="s">
         <v>18</v>
       </c>
       <c r="O210">
-        <v>1565</v>
+        <v>-16</v>
       </c>
       <c r="P210" t="s">
         <v>19</v>
@@ -11552,43 +11570,49 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="C211" s="2">
-        <v>43592</v>
+        <v>43556</v>
       </c>
       <c r="D211" s="2">
-        <v>43637</v>
+        <v>43602</v>
       </c>
       <c r="E211" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F211" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G211">
-        <v>8525</v>
+        <v>6725</v>
+      </c>
+      <c r="H211">
+        <v>7478.4160000000002</v>
       </c>
       <c r="I211">
-        <v>3.4</v>
+        <v>22.19</v>
+      </c>
+      <c r="J211">
+        <v>10.07</v>
       </c>
       <c r="K211" s="2">
-        <v>43592</v>
+        <v>43602</v>
       </c>
       <c r="L211">
-        <v>7640.1490000000003</v>
+        <v>7503.68</v>
       </c>
       <c r="M211">
-        <v>-340</v>
+        <v>2219</v>
       </c>
       <c r="N211" t="s">
         <v>18</v>
       </c>
       <c r="O211">
-        <v>-340</v>
+        <v>2219</v>
       </c>
       <c r="P211" t="s">
         <v>19</v>
@@ -11599,7 +11623,7 @@
         <v>5</v>
       </c>
       <c r="B212" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C212" s="2">
         <v>43586</v>
@@ -11611,19 +11635,19 @@
         <v>16</v>
       </c>
       <c r="F212" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G212">
-        <v>9300</v>
+        <v>8525</v>
       </c>
       <c r="H212">
         <v>7751.8469999999998</v>
       </c>
       <c r="I212">
-        <v>1.3</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J212">
-        <v>19.97</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="K212" s="2">
         <v>43592</v>
@@ -11632,13 +11656,13 @@
         <v>7640.1490000000003</v>
       </c>
       <c r="M212">
-        <v>-130</v>
+        <v>465.00000000000011</v>
       </c>
       <c r="N212" t="s">
         <v>18</v>
       </c>
       <c r="O212">
-        <v>-130</v>
+        <v>465.00000000000011</v>
       </c>
       <c r="P212" t="s">
         <v>19</v>
@@ -11649,7 +11673,7 @@
         <v>16</v>
       </c>
       <c r="B213" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C213" s="2">
         <v>43586</v>
@@ -11661,19 +11685,19 @@
         <v>21</v>
       </c>
       <c r="F213" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G213">
-        <v>6975</v>
+        <v>6200</v>
       </c>
       <c r="H213">
         <v>7751.8469999999998</v>
       </c>
       <c r="I213">
-        <v>23.85</v>
+        <v>7.4</v>
       </c>
       <c r="J213">
-        <v>10.02</v>
+        <v>20.02</v>
       </c>
       <c r="K213" s="2">
         <v>43592</v>
@@ -11682,13 +11706,13 @@
         <v>7640.1490000000003</v>
       </c>
       <c r="M213">
-        <v>2385</v>
+        <v>-740</v>
       </c>
       <c r="N213" t="s">
         <v>18</v>
       </c>
       <c r="O213">
-        <v>2385</v>
+        <v>-740</v>
       </c>
       <c r="P213" t="s">
         <v>19</v>
@@ -11699,7 +11723,7 @@
         <v>2</v>
       </c>
       <c r="B214" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C214" s="2">
         <v>43592</v>
@@ -11711,13 +11735,13 @@
         <v>21</v>
       </c>
       <c r="F214" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G214">
-        <v>6975</v>
+        <v>6200</v>
       </c>
       <c r="I214">
-        <v>56.85</v>
+        <v>15.65</v>
       </c>
       <c r="K214" s="2">
         <v>43592</v>
@@ -11726,13 +11750,13 @@
         <v>7640.1490000000003</v>
       </c>
       <c r="M214">
-        <v>-5685</v>
+        <v>1565</v>
       </c>
       <c r="N214" t="s">
         <v>18</v>
       </c>
       <c r="O214">
-        <v>-5685</v>
+        <v>1565</v>
       </c>
       <c r="P214" t="s">
         <v>19</v>
@@ -11743,7 +11767,7 @@
         <v>1</v>
       </c>
       <c r="B215" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C215" s="2">
         <v>43592</v>
@@ -11755,13 +11779,13 @@
         <v>16</v>
       </c>
       <c r="F215" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G215">
-        <v>9300</v>
+        <v>8525</v>
       </c>
       <c r="I215">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="K215" s="2">
         <v>43592</v>
@@ -11770,13 +11794,13 @@
         <v>7640.1490000000003</v>
       </c>
       <c r="M215">
-        <v>60</v>
+        <v>-340</v>
       </c>
       <c r="N215" t="s">
         <v>18</v>
       </c>
       <c r="O215">
-        <v>60</v>
+        <v>-340</v>
       </c>
       <c r="P215" t="s">
         <v>19</v>
@@ -11784,99 +11808,99 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B216" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C216" s="2">
-        <v>43619</v>
+        <v>43586</v>
       </c>
       <c r="D216" s="2">
-        <v>43665</v>
+        <v>43637</v>
       </c>
       <c r="E216" t="s">
         <v>16</v>
       </c>
       <c r="F216" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G216">
-        <v>7675</v>
+        <v>9300</v>
       </c>
       <c r="H216">
-        <v>6978.0169999999998</v>
+        <v>7751.8469999999998</v>
       </c>
       <c r="I216">
-        <v>14.17</v>
+        <v>1.3</v>
       </c>
       <c r="J216">
-        <v>9.99</v>
+        <v>19.97</v>
       </c>
       <c r="K216" s="2">
-        <v>43665</v>
+        <v>43592</v>
       </c>
       <c r="L216">
-        <v>7834.8969999999999</v>
+        <v>7640.1490000000003</v>
       </c>
       <c r="M216">
-        <v>1417</v>
+        <v>-130</v>
       </c>
       <c r="N216" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="O216">
-        <v>-14572.69999999999</v>
+        <v>-130</v>
       </c>
       <c r="P216" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B217" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C217" s="2">
-        <v>43619</v>
+        <v>43586</v>
       </c>
       <c r="D217" s="2">
-        <v>43665</v>
+        <v>43637</v>
       </c>
       <c r="E217" t="s">
         <v>21</v>
       </c>
       <c r="F217" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G217">
-        <v>5575</v>
+        <v>6975</v>
       </c>
       <c r="H217">
-        <v>6978.0169999999998</v>
+        <v>7751.8469999999998</v>
       </c>
       <c r="I217">
-        <v>6.9</v>
+        <v>23.85</v>
       </c>
       <c r="J217">
-        <v>20.11</v>
+        <v>10.02</v>
       </c>
       <c r="K217" s="2">
-        <v>43665</v>
+        <v>43592</v>
       </c>
       <c r="L217">
-        <v>7834.8969999999999</v>
+        <v>7640.1490000000003</v>
       </c>
       <c r="M217">
-        <v>-690</v>
+        <v>2385</v>
       </c>
       <c r="N217" t="s">
         <v>18</v>
       </c>
       <c r="O217">
-        <v>-690</v>
+        <v>2385</v>
       </c>
       <c r="P217" t="s">
         <v>19</v>
@@ -11884,49 +11908,43 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B218" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C218" s="2">
-        <v>43619</v>
+        <v>43592</v>
       </c>
       <c r="D218" s="2">
-        <v>43665</v>
+        <v>43637</v>
       </c>
       <c r="E218" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F218" t="s">
         <v>22</v>
       </c>
       <c r="G218">
-        <v>8375</v>
-      </c>
-      <c r="H218">
-        <v>6978.0169999999998</v>
+        <v>6975</v>
       </c>
       <c r="I218">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J218">
-        <v>20.02</v>
+        <v>56.85</v>
       </c>
       <c r="K218" s="2">
-        <v>43665</v>
+        <v>43592</v>
       </c>
       <c r="L218">
-        <v>7834.8969999999999</v>
+        <v>7640.1490000000003</v>
       </c>
       <c r="M218">
-        <v>-55.000000000000007</v>
+        <v>-5685</v>
       </c>
       <c r="N218" t="s">
         <v>18</v>
       </c>
       <c r="O218">
-        <v>-55.000000000000007</v>
+        <v>-5685</v>
       </c>
       <c r="P218" t="s">
         <v>19</v>
@@ -11934,49 +11952,43 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B219" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C219" s="2">
-        <v>43619</v>
+        <v>43592</v>
       </c>
       <c r="D219" s="2">
-        <v>43665</v>
+        <v>43637</v>
       </c>
       <c r="E219" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F219" t="s">
         <v>17</v>
       </c>
       <c r="G219">
-        <v>6275</v>
-      </c>
-      <c r="H219">
-        <v>6978.0169999999998</v>
+        <v>9300</v>
       </c>
       <c r="I219">
-        <v>43.5</v>
-      </c>
-      <c r="J219">
-        <v>10.07</v>
+        <v>0.6</v>
       </c>
       <c r="K219" s="2">
-        <v>43665</v>
+        <v>43592</v>
       </c>
       <c r="L219">
-        <v>7834.8969999999999</v>
+        <v>7640.1490000000003</v>
       </c>
       <c r="M219">
-        <v>4350</v>
+        <v>60</v>
       </c>
       <c r="N219" t="s">
         <v>18</v>
       </c>
       <c r="O219">
-        <v>4350</v>
+        <v>60</v>
       </c>
       <c r="P219" t="s">
         <v>19</v>
@@ -11984,87 +11996,99 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C220" s="2">
-        <v>43677</v>
+        <v>43619</v>
       </c>
       <c r="D220" s="2">
-        <v>43693</v>
+        <v>43665</v>
       </c>
       <c r="E220" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F220" t="s">
         <v>17</v>
       </c>
       <c r="G220">
-        <v>6225</v>
+        <v>7675</v>
+      </c>
+      <c r="H220">
+        <v>6978.0169999999998</v>
       </c>
       <c r="I220">
-        <v>0.3</v>
+        <v>14.17</v>
+      </c>
+      <c r="J220">
+        <v>9.99</v>
       </c>
       <c r="K220" s="2">
-        <v>43677</v>
+        <v>43665</v>
       </c>
       <c r="L220">
-        <v>7848.78</v>
+        <v>7834.8969999999999</v>
       </c>
       <c r="M220">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="N220" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="O220">
-        <v>30</v>
+        <v>-14572.69999999999</v>
       </c>
       <c r="P220" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B221" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C221" s="2">
-        <v>43677</v>
+        <v>43619</v>
       </c>
       <c r="D221" s="2">
-        <v>43693</v>
+        <v>43665</v>
       </c>
       <c r="E221" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F221" t="s">
         <v>22</v>
       </c>
       <c r="G221">
-        <v>8550</v>
+        <v>5575</v>
+      </c>
+      <c r="H221">
+        <v>6978.0169999999998</v>
       </c>
       <c r="I221">
-        <v>0.25</v>
+        <v>6.9</v>
+      </c>
+      <c r="J221">
+        <v>20.11</v>
       </c>
       <c r="K221" s="2">
-        <v>43677</v>
+        <v>43665</v>
       </c>
       <c r="L221">
-        <v>7848.78</v>
+        <v>7834.8969999999999</v>
       </c>
       <c r="M221">
-        <v>-25</v>
+        <v>-690</v>
       </c>
       <c r="N221" t="s">
         <v>18</v>
       </c>
       <c r="O221">
-        <v>-25</v>
+        <v>-690</v>
       </c>
       <c r="P221" t="s">
         <v>19</v>
@@ -12072,49 +12096,49 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C222" s="2">
-        <v>43647</v>
+        <v>43619</v>
       </c>
       <c r="D222" s="2">
-        <v>43693</v>
+        <v>43665</v>
       </c>
       <c r="E222" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F222" t="s">
         <v>22</v>
       </c>
       <c r="G222">
-        <v>6225</v>
+        <v>8375</v>
       </c>
       <c r="H222">
-        <v>7768.1380000000008</v>
+        <v>6978.0169999999998</v>
       </c>
       <c r="I222">
-        <v>5.15</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J222">
-        <v>19.86</v>
+        <v>20.02</v>
       </c>
       <c r="K222" s="2">
-        <v>43677</v>
+        <v>43665</v>
       </c>
       <c r="L222">
-        <v>7848.78</v>
+        <v>7834.8969999999999</v>
       </c>
       <c r="M222">
-        <v>-515</v>
+        <v>-55.000000000000007</v>
       </c>
       <c r="N222" t="s">
         <v>18</v>
       </c>
       <c r="O222">
-        <v>-515</v>
+        <v>-55.000000000000007</v>
       </c>
       <c r="P222" t="s">
         <v>19</v>
@@ -12122,49 +12146,49 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B223" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="C223" s="2">
-        <v>43647</v>
+        <v>43619</v>
       </c>
       <c r="D223" s="2">
-        <v>43693</v>
+        <v>43665</v>
       </c>
       <c r="E223" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F223" t="s">
         <v>17</v>
       </c>
       <c r="G223">
-        <v>8550</v>
+        <v>6275</v>
       </c>
       <c r="H223">
-        <v>7768.1380000000008</v>
+        <v>6978.0169999999998</v>
       </c>
       <c r="I223">
-        <v>3.7</v>
+        <v>43.5</v>
       </c>
       <c r="J223">
-        <v>10.06</v>
+        <v>10.07</v>
       </c>
       <c r="K223" s="2">
-        <v>43677</v>
+        <v>43665</v>
       </c>
       <c r="L223">
-        <v>7848.78</v>
+        <v>7834.8969999999999</v>
       </c>
       <c r="M223">
-        <v>370</v>
+        <v>4350</v>
       </c>
       <c r="N223" t="s">
         <v>18</v>
       </c>
       <c r="O223">
-        <v>370</v>
+        <v>4350</v>
       </c>
       <c r="P223" t="s">
         <v>19</v>
@@ -12175,7 +12199,7 @@
         <v>4</v>
       </c>
       <c r="B224" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C224" s="2">
         <v>43677</v>
@@ -12187,13 +12211,13 @@
         <v>21</v>
       </c>
       <c r="F224" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G224">
-        <v>7000</v>
+        <v>6225</v>
       </c>
       <c r="I224">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="K224" s="2">
         <v>43677</v>
@@ -12202,13 +12226,13 @@
         <v>7848.78</v>
       </c>
       <c r="M224">
-        <v>-400</v>
+        <v>30</v>
       </c>
       <c r="N224" t="s">
         <v>18</v>
       </c>
       <c r="O224">
-        <v>-400</v>
+        <v>30</v>
       </c>
       <c r="P224" t="s">
         <v>19</v>
@@ -12219,7 +12243,7 @@
         <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C225" s="2">
         <v>43677</v>
@@ -12231,13 +12255,13 @@
         <v>16</v>
       </c>
       <c r="F225" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G225">
-        <v>9300</v>
+        <v>8550</v>
       </c>
       <c r="I225">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="K225" s="2">
         <v>43677</v>
@@ -12246,13 +12270,13 @@
         <v>7848.78</v>
       </c>
       <c r="M225">
-        <v>4</v>
+        <v>-25</v>
       </c>
       <c r="N225" t="s">
         <v>18</v>
       </c>
       <c r="O225">
-        <v>4</v>
+        <v>-25</v>
       </c>
       <c r="P225" t="s">
         <v>19</v>
@@ -12263,7 +12287,7 @@
         <v>18</v>
       </c>
       <c r="B226" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C226" s="2">
         <v>43647</v>
@@ -12275,19 +12299,19 @@
         <v>21</v>
       </c>
       <c r="F226" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G226">
-        <v>7000</v>
+        <v>6225</v>
       </c>
       <c r="H226">
         <v>7768.1380000000008</v>
       </c>
       <c r="I226">
-        <v>32.31</v>
+        <v>5.15</v>
       </c>
       <c r="J226">
-        <v>9.89</v>
+        <v>19.86</v>
       </c>
       <c r="K226" s="2">
         <v>43677</v>
@@ -12296,13 +12320,13 @@
         <v>7848.78</v>
       </c>
       <c r="M226">
-        <v>3231</v>
+        <v>-515</v>
       </c>
       <c r="N226" t="s">
         <v>18</v>
       </c>
       <c r="O226">
-        <v>3231</v>
+        <v>-515</v>
       </c>
       <c r="P226" t="s">
         <v>19</v>
@@ -12313,7 +12337,7 @@
         <v>7</v>
       </c>
       <c r="B227" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C227" s="2">
         <v>43647</v>
@@ -12325,19 +12349,19 @@
         <v>16</v>
       </c>
       <c r="F227" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G227">
-        <v>9300</v>
+        <v>8550</v>
       </c>
       <c r="H227">
         <v>7768.1380000000008</v>
       </c>
       <c r="I227">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="J227">
-        <v>19.72</v>
+        <v>10.06</v>
       </c>
       <c r="K227" s="2">
         <v>43677</v>
@@ -12346,13 +12370,13 @@
         <v>7848.78</v>
       </c>
       <c r="M227">
-        <v>-30</v>
+        <v>370</v>
       </c>
       <c r="N227" t="s">
         <v>18</v>
       </c>
       <c r="O227">
-        <v>-30</v>
+        <v>370</v>
       </c>
       <c r="P227" t="s">
         <v>19</v>
@@ -12360,16 +12384,16 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B228" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C228" s="2">
-        <v>43678</v>
+        <v>43677</v>
       </c>
       <c r="D228" s="2">
-        <v>43728</v>
+        <v>43693</v>
       </c>
       <c r="E228" t="s">
         <v>21</v>
@@ -12378,31 +12402,25 @@
         <v>22</v>
       </c>
       <c r="G228">
-        <v>6250</v>
-      </c>
-      <c r="H228">
-        <v>7801.1459999999997</v>
+        <v>7000</v>
       </c>
       <c r="I228">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J228">
-        <v>19.88</v>
+        <v>4</v>
       </c>
       <c r="K228" s="2">
-        <v>43682</v>
+        <v>43677</v>
       </c>
       <c r="L228">
-        <v>7415.6909999999998</v>
+        <v>7848.78</v>
       </c>
       <c r="M228">
-        <v>-1020</v>
+        <v>-400</v>
       </c>
       <c r="N228" t="s">
         <v>18</v>
       </c>
       <c r="O228">
-        <v>-1020</v>
+        <v>-400</v>
       </c>
       <c r="P228" t="s">
         <v>19</v>
@@ -12410,16 +12428,16 @@
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C229" s="2">
-        <v>43678</v>
+        <v>43677</v>
       </c>
       <c r="D229" s="2">
-        <v>43728</v>
+        <v>43693</v>
       </c>
       <c r="E229" t="s">
         <v>16</v>
@@ -12428,31 +12446,25 @@
         <v>17</v>
       </c>
       <c r="G229">
-        <v>8575</v>
-      </c>
-      <c r="H229">
-        <v>7801.1459999999997</v>
+        <v>9300</v>
       </c>
       <c r="I229">
-        <v>7.09</v>
-      </c>
-      <c r="J229">
-        <v>9.92</v>
+        <v>0.04</v>
       </c>
       <c r="K229" s="2">
-        <v>43682</v>
+        <v>43677</v>
       </c>
       <c r="L229">
-        <v>7415.6909999999998</v>
+        <v>7848.78</v>
       </c>
       <c r="M229">
-        <v>709</v>
+        <v>4</v>
       </c>
       <c r="N229" t="s">
         <v>18</v>
       </c>
       <c r="O229">
-        <v>709</v>
+        <v>4</v>
       </c>
       <c r="P229" t="s">
         <v>19</v>
@@ -12460,43 +12472,49 @@
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B230" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C230" s="2">
-        <v>43682</v>
+        <v>43647</v>
       </c>
       <c r="D230" s="2">
-        <v>43728</v>
+        <v>43693</v>
       </c>
       <c r="E230" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F230" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G230">
-        <v>8575</v>
+        <v>7000</v>
+      </c>
+      <c r="H230">
+        <v>7768.1380000000008</v>
       </c>
       <c r="I230">
-        <v>1.1499999999999999</v>
+        <v>32.31</v>
+      </c>
+      <c r="J230">
+        <v>9.89</v>
       </c>
       <c r="K230" s="2">
-        <v>43682</v>
+        <v>43677</v>
       </c>
       <c r="L230">
-        <v>7415.6909999999998</v>
+        <v>7848.78</v>
       </c>
       <c r="M230">
-        <v>-115</v>
+        <v>3231</v>
       </c>
       <c r="N230" t="s">
         <v>18</v>
       </c>
       <c r="O230">
-        <v>-115</v>
+        <v>3231</v>
       </c>
       <c r="P230" t="s">
         <v>19</v>
@@ -12504,43 +12522,49 @@
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B231" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C231" s="2">
-        <v>43682</v>
+        <v>43647</v>
       </c>
       <c r="D231" s="2">
-        <v>43728</v>
+        <v>43693</v>
       </c>
       <c r="E231" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F231" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G231">
-        <v>6250</v>
+        <v>9300</v>
+      </c>
+      <c r="H231">
+        <v>7768.1380000000008</v>
       </c>
       <c r="I231">
-        <v>27.75</v>
+        <v>0.3</v>
+      </c>
+      <c r="J231">
+        <v>19.72</v>
       </c>
       <c r="K231" s="2">
-        <v>43682</v>
+        <v>43677</v>
       </c>
       <c r="L231">
-        <v>7415.6909999999998</v>
+        <v>7848.78</v>
       </c>
       <c r="M231">
-        <v>2775</v>
+        <v>-30</v>
       </c>
       <c r="N231" t="s">
         <v>18</v>
       </c>
       <c r="O231">
-        <v>2775</v>
+        <v>-30</v>
       </c>
       <c r="P231" t="s">
         <v>19</v>
@@ -12551,7 +12575,7 @@
         <v>19</v>
       </c>
       <c r="B232" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C232" s="2">
         <v>43678</v>
@@ -12563,19 +12587,19 @@
         <v>21</v>
       </c>
       <c r="F232" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G232">
-        <v>7025</v>
+        <v>6250</v>
       </c>
       <c r="H232">
         <v>7801.1459999999997</v>
       </c>
       <c r="I232">
-        <v>54.35</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J232">
-        <v>9.9499999999999993</v>
+        <v>19.88</v>
       </c>
       <c r="K232" s="2">
         <v>43682</v>
@@ -12584,13 +12608,13 @@
         <v>7415.6909999999998</v>
       </c>
       <c r="M232">
-        <v>5435</v>
+        <v>-1020</v>
       </c>
       <c r="N232" t="s">
         <v>18</v>
       </c>
       <c r="O232">
-        <v>5435</v>
+        <v>-1020</v>
       </c>
       <c r="P232" t="s">
         <v>19</v>
@@ -12601,7 +12625,7 @@
         <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C233" s="2">
         <v>43678</v>
@@ -12613,19 +12637,19 @@
         <v>16</v>
       </c>
       <c r="F233" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G233">
-        <v>9400</v>
+        <v>8575</v>
       </c>
       <c r="H233">
         <v>7801.1459999999997</v>
       </c>
       <c r="I233">
-        <v>0.23</v>
+        <v>7.09</v>
       </c>
       <c r="J233">
-        <v>20.5</v>
+        <v>9.92</v>
       </c>
       <c r="K233" s="2">
         <v>43682</v>
@@ -12634,13 +12658,13 @@
         <v>7415.6909999999998</v>
       </c>
       <c r="M233">
-        <v>-23</v>
+        <v>709</v>
       </c>
       <c r="N233" t="s">
         <v>18</v>
       </c>
       <c r="O233">
-        <v>-23</v>
+        <v>709</v>
       </c>
       <c r="P233" t="s">
         <v>19</v>
@@ -12651,7 +12675,7 @@
         <v>5</v>
       </c>
       <c r="B234" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C234" s="2">
         <v>43682</v>
@@ -12663,13 +12687,13 @@
         <v>16</v>
       </c>
       <c r="F234" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G234">
-        <v>9400</v>
+        <v>8575</v>
       </c>
       <c r="I234">
-        <v>0.18</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K234" s="2">
         <v>43682</v>
@@ -12678,13 +12702,13 @@
         <v>7415.6909999999998</v>
       </c>
       <c r="M234">
-        <v>18</v>
+        <v>-115</v>
       </c>
       <c r="N234" t="s">
         <v>18</v>
       </c>
       <c r="O234">
-        <v>18</v>
+        <v>-115</v>
       </c>
       <c r="P234" t="s">
         <v>19</v>
@@ -12695,7 +12719,7 @@
         <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C235" s="2">
         <v>43682</v>
@@ -12707,13 +12731,13 @@
         <v>21</v>
       </c>
       <c r="F235" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G235">
-        <v>7025</v>
+        <v>6250</v>
       </c>
       <c r="I235">
-        <v>103.83</v>
+        <v>27.75</v>
       </c>
       <c r="K235" s="2">
         <v>43682</v>
@@ -12722,13 +12746,13 @@
         <v>7415.6909999999998</v>
       </c>
       <c r="M235">
-        <v>-10383</v>
+        <v>2775</v>
       </c>
       <c r="N235" t="s">
         <v>18</v>
       </c>
       <c r="O235">
-        <v>-10383</v>
+        <v>2775</v>
       </c>
       <c r="P235" t="s">
         <v>19</v>
@@ -12736,49 +12760,49 @@
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B236" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="C236" s="2">
-        <v>43711</v>
+        <v>43678</v>
       </c>
       <c r="D236" s="2">
-        <v>43756</v>
+        <v>43728</v>
       </c>
       <c r="E236" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F236" t="s">
         <v>17</v>
       </c>
       <c r="G236">
-        <v>8375</v>
+        <v>7025</v>
       </c>
       <c r="H236">
-        <v>7609.5130000000008</v>
+        <v>7801.1459999999997</v>
       </c>
       <c r="I236">
-        <v>4.05</v>
+        <v>54.35</v>
       </c>
       <c r="J236">
-        <v>10.06</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="K236" s="2">
-        <v>43756</v>
+        <v>43682</v>
       </c>
       <c r="L236">
-        <v>7868.491</v>
+        <v>7415.6909999999998</v>
       </c>
       <c r="M236">
-        <v>405</v>
+        <v>5435</v>
       </c>
       <c r="N236" t="s">
         <v>18</v>
       </c>
       <c r="O236">
-        <v>405</v>
+        <v>5435</v>
       </c>
       <c r="P236" t="s">
         <v>19</v>
@@ -12786,49 +12810,49 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="C237" s="2">
-        <v>43711</v>
+        <v>43678</v>
       </c>
       <c r="D237" s="2">
-        <v>43756</v>
+        <v>43728</v>
       </c>
       <c r="E237" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F237" t="s">
         <v>22</v>
       </c>
       <c r="G237">
-        <v>6100</v>
+        <v>9400</v>
       </c>
       <c r="H237">
-        <v>7609.5130000000008</v>
+        <v>7801.1459999999997</v>
       </c>
       <c r="I237">
-        <v>10.65</v>
+        <v>0.23</v>
       </c>
       <c r="J237">
-        <v>19.84</v>
+        <v>20.5</v>
       </c>
       <c r="K237" s="2">
-        <v>43756</v>
+        <v>43682</v>
       </c>
       <c r="L237">
-        <v>7868.491</v>
+        <v>7415.6909999999998</v>
       </c>
       <c r="M237">
-        <v>-1065</v>
+        <v>-23</v>
       </c>
       <c r="N237" t="s">
         <v>18</v>
       </c>
       <c r="O237">
-        <v>-1065</v>
+        <v>-23</v>
       </c>
       <c r="P237" t="s">
         <v>19</v>
@@ -12836,49 +12860,43 @@
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C238" s="2">
-        <v>43711</v>
+        <v>43682</v>
       </c>
       <c r="D238" s="2">
-        <v>43756</v>
+        <v>43728</v>
       </c>
       <c r="E238" t="s">
         <v>16</v>
       </c>
       <c r="F238" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G238">
-        <v>9100</v>
-      </c>
-      <c r="H238">
-        <v>7609.5130000000008</v>
+        <v>9400</v>
       </c>
       <c r="I238">
-        <v>0.09</v>
-      </c>
-      <c r="J238">
-        <v>19.59</v>
+        <v>0.18</v>
       </c>
       <c r="K238" s="2">
-        <v>43756</v>
+        <v>43682</v>
       </c>
       <c r="L238">
-        <v>7868.491</v>
+        <v>7415.6909999999998</v>
       </c>
       <c r="M238">
-        <v>-9</v>
+        <v>18</v>
       </c>
       <c r="N238" t="s">
         <v>18</v>
       </c>
       <c r="O238">
-        <v>-9</v>
+        <v>18</v>
       </c>
       <c r="P238" t="s">
         <v>19</v>
@@ -12886,49 +12904,43 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C239" s="2">
-        <v>43711</v>
+        <v>43682</v>
       </c>
       <c r="D239" s="2">
-        <v>43756</v>
+        <v>43728</v>
       </c>
       <c r="E239" t="s">
         <v>21</v>
       </c>
       <c r="F239" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G239">
-        <v>6850</v>
-      </c>
-      <c r="H239">
-        <v>7609.5130000000008</v>
+        <v>7025</v>
       </c>
       <c r="I239">
-        <v>54.2</v>
-      </c>
-      <c r="J239">
-        <v>9.98</v>
+        <v>103.83</v>
       </c>
       <c r="K239" s="2">
-        <v>43756</v>
+        <v>43682</v>
       </c>
       <c r="L239">
-        <v>7868.491</v>
+        <v>7415.6909999999998</v>
       </c>
       <c r="M239">
-        <v>5420</v>
+        <v>-10383</v>
       </c>
       <c r="N239" t="s">
         <v>18</v>
       </c>
       <c r="O239">
-        <v>5420</v>
+        <v>-10383</v>
       </c>
       <c r="P239" t="s">
         <v>19</v>
@@ -12936,49 +12948,49 @@
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C240" s="2">
-        <v>43739</v>
+        <v>43711</v>
       </c>
       <c r="D240" s="2">
-        <v>43784</v>
+        <v>43756</v>
       </c>
       <c r="E240" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F240" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G240">
-        <v>6100</v>
+        <v>8375</v>
       </c>
       <c r="H240">
-        <v>7684.1419999999998</v>
+        <v>7609.5130000000008</v>
       </c>
       <c r="I240">
-        <v>7.55</v>
+        <v>4.05</v>
       </c>
       <c r="J240">
-        <v>20.62</v>
+        <v>10.06</v>
       </c>
       <c r="K240" s="2">
-        <v>43784</v>
+        <v>43756</v>
       </c>
       <c r="L240">
-        <v>8315.523000000001</v>
+        <v>7868.491</v>
       </c>
       <c r="M240">
-        <v>-755</v>
+        <v>405</v>
       </c>
       <c r="N240" t="s">
         <v>18</v>
       </c>
       <c r="O240">
-        <v>-755</v>
+        <v>405</v>
       </c>
       <c r="P240" t="s">
         <v>19</v>
@@ -12986,49 +12998,49 @@
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B241" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C241" s="2">
-        <v>43739</v>
+        <v>43711</v>
       </c>
       <c r="D241" s="2">
-        <v>43784</v>
+        <v>43756</v>
       </c>
       <c r="E241" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F241" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G241">
-        <v>8450</v>
+        <v>6100</v>
       </c>
       <c r="H241">
-        <v>7684.1419999999998</v>
+        <v>7609.5130000000008</v>
       </c>
       <c r="I241">
-        <v>4.9000000000000004</v>
+        <v>10.65</v>
       </c>
       <c r="J241">
-        <v>9.9700000000000006</v>
+        <v>19.84</v>
       </c>
       <c r="K241" s="2">
-        <v>43784</v>
+        <v>43756</v>
       </c>
       <c r="L241">
-        <v>8315.523000000001</v>
+        <v>7868.491</v>
       </c>
       <c r="M241">
-        <v>490.00000000000011</v>
+        <v>-1065</v>
       </c>
       <c r="N241" t="s">
         <v>18</v>
       </c>
       <c r="O241">
-        <v>490.00000000000011</v>
+        <v>-1065</v>
       </c>
       <c r="P241" t="s">
         <v>19</v>
@@ -13036,49 +13048,49 @@
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C242" s="2">
-        <v>43739</v>
+        <v>43711</v>
       </c>
       <c r="D242" s="2">
-        <v>43784</v>
+        <v>43756</v>
       </c>
       <c r="E242" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F242" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G242">
-        <v>6925</v>
+        <v>9100</v>
       </c>
       <c r="H242">
-        <v>7684.1419999999998</v>
+        <v>7609.5130000000008</v>
       </c>
       <c r="I242">
-        <v>44.87</v>
+        <v>0.09</v>
       </c>
       <c r="J242">
-        <v>9.8800000000000008</v>
+        <v>19.59</v>
       </c>
       <c r="K242" s="2">
-        <v>43784</v>
+        <v>43756</v>
       </c>
       <c r="L242">
-        <v>8315.523000000001</v>
+        <v>7868.491</v>
       </c>
       <c r="M242">
-        <v>4487</v>
+        <v>-9</v>
       </c>
       <c r="N242" t="s">
         <v>18</v>
       </c>
       <c r="O242">
-        <v>4487</v>
+        <v>-9</v>
       </c>
       <c r="P242" t="s">
         <v>19</v>
@@ -13086,49 +13098,49 @@
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B243" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C243" s="2">
-        <v>43739</v>
+        <v>43711</v>
       </c>
       <c r="D243" s="2">
-        <v>43784</v>
+        <v>43756</v>
       </c>
       <c r="E243" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F243" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G243">
-        <v>9200</v>
+        <v>6850</v>
       </c>
       <c r="H243">
-        <v>7684.1419999999998</v>
+        <v>7609.5130000000008</v>
       </c>
       <c r="I243">
-        <v>0.17</v>
+        <v>54.2</v>
       </c>
       <c r="J243">
-        <v>19.73</v>
+        <v>9.98</v>
       </c>
       <c r="K243" s="2">
-        <v>43784</v>
+        <v>43756</v>
       </c>
       <c r="L243">
-        <v>8315.523000000001</v>
+        <v>7868.491</v>
       </c>
       <c r="M243">
-        <v>-17</v>
+        <v>5420</v>
       </c>
       <c r="N243" t="s">
         <v>18</v>
       </c>
       <c r="O243">
-        <v>-17</v>
+        <v>5420</v>
       </c>
       <c r="P243" t="s">
         <v>19</v>
@@ -13136,49 +13148,49 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B244" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C244" s="2">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="D244" s="2">
-        <v>43819</v>
+        <v>43784</v>
       </c>
       <c r="E244" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F244" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G244">
-        <v>8975</v>
+        <v>6100</v>
       </c>
       <c r="H244">
-        <v>8161.1669999999986</v>
+        <v>7684.1419999999998</v>
       </c>
       <c r="I244">
-        <v>1.9</v>
+        <v>7.55</v>
       </c>
       <c r="J244">
-        <v>9.9700000000000006</v>
+        <v>20.62</v>
       </c>
       <c r="K244" s="2">
-        <v>43819</v>
+        <v>43784</v>
       </c>
       <c r="L244">
-        <v>8678.491</v>
+        <v>8315.523000000001</v>
       </c>
       <c r="M244">
-        <v>190</v>
+        <v>-755</v>
       </c>
       <c r="N244" t="s">
         <v>18</v>
       </c>
       <c r="O244">
-        <v>190</v>
+        <v>-755</v>
       </c>
       <c r="P244" t="s">
         <v>19</v>
@@ -13186,49 +13198,49 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B245" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C245" s="2">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="D245" s="2">
-        <v>43819</v>
+        <v>43784</v>
       </c>
       <c r="E245" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F245" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G245">
-        <v>6525</v>
+        <v>8450</v>
       </c>
       <c r="H245">
-        <v>8161.1669999999986</v>
+        <v>7684.1419999999998</v>
       </c>
       <c r="I245">
-        <v>5.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J245">
-        <v>20.05</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="K245" s="2">
-        <v>43819</v>
+        <v>43784</v>
       </c>
       <c r="L245">
-        <v>8678.491</v>
+        <v>8315.523000000001</v>
       </c>
       <c r="M245">
-        <v>-550</v>
+        <v>490.00000000000011</v>
       </c>
       <c r="N245" t="s">
         <v>18</v>
       </c>
       <c r="O245">
-        <v>-550</v>
+        <v>490.00000000000011</v>
       </c>
       <c r="P245" t="s">
         <v>19</v>
@@ -13236,49 +13248,49 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B246" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C246" s="2">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="D246" s="2">
-        <v>43819</v>
+        <v>43784</v>
       </c>
       <c r="E246" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F246" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G246">
-        <v>9800</v>
+        <v>6925</v>
       </c>
       <c r="H246">
-        <v>8161.1669999999986</v>
+        <v>7684.1419999999998</v>
       </c>
       <c r="I246">
-        <v>0.04</v>
+        <v>44.87</v>
       </c>
       <c r="J246">
-        <v>20.079999999999998</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="K246" s="2">
-        <v>43819</v>
+        <v>43784</v>
       </c>
       <c r="L246">
-        <v>8678.491</v>
+        <v>8315.523000000001</v>
       </c>
       <c r="M246">
-        <v>-4</v>
+        <v>4487</v>
       </c>
       <c r="N246" t="s">
         <v>18</v>
       </c>
       <c r="O246">
-        <v>-4</v>
+        <v>4487</v>
       </c>
       <c r="P246" t="s">
         <v>19</v>
@@ -13286,49 +13298,49 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B247" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C247" s="2">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="D247" s="2">
-        <v>43819</v>
+        <v>43784</v>
       </c>
       <c r="E247" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F247" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G247">
-        <v>7350</v>
+        <v>9200</v>
       </c>
       <c r="H247">
-        <v>8161.1669999999986</v>
+        <v>7684.1419999999998</v>
       </c>
       <c r="I247">
-        <v>31.75</v>
+        <v>0.17</v>
       </c>
       <c r="J247">
-        <v>9.94</v>
+        <v>19.73</v>
       </c>
       <c r="K247" s="2">
-        <v>43819</v>
+        <v>43784</v>
       </c>
       <c r="L247">
-        <v>8678.491</v>
+        <v>8315.523000000001</v>
       </c>
       <c r="M247">
-        <v>3175</v>
+        <v>-17</v>
       </c>
       <c r="N247" t="s">
         <v>18</v>
       </c>
       <c r="O247">
-        <v>3175</v>
+        <v>-17</v>
       </c>
       <c r="P247" t="s">
         <v>19</v>
@@ -13336,16 +13348,16 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B248" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C248" s="2">
-        <v>43801</v>
+        <v>43770</v>
       </c>
       <c r="D248" s="2">
-        <v>43847</v>
+        <v>43819</v>
       </c>
       <c r="E248" t="s">
         <v>16</v>
@@ -13354,31 +13366,31 @@
         <v>17</v>
       </c>
       <c r="G248">
-        <v>9150</v>
+        <v>8975</v>
       </c>
       <c r="H248">
-        <v>8309.26</v>
+        <v>8161.1669999999986</v>
       </c>
       <c r="I248">
-        <v>1.18</v>
+        <v>1.9</v>
       </c>
       <c r="J248">
-        <v>10.119999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="K248" s="2">
-        <v>43802</v>
+        <v>43819</v>
       </c>
       <c r="L248">
-        <v>8254.7369999999992</v>
+        <v>8678.491</v>
       </c>
       <c r="M248">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="N248" t="s">
         <v>18</v>
       </c>
       <c r="O248">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="P248" t="s">
         <v>19</v>
@@ -13386,43 +13398,49 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B249" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C249" s="2">
-        <v>43802</v>
+        <v>43770</v>
       </c>
       <c r="D249" s="2">
-        <v>43847</v>
+        <v>43819</v>
       </c>
       <c r="E249" t="s">
         <v>21</v>
       </c>
       <c r="F249" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G249">
-        <v>6650</v>
+        <v>6525</v>
+      </c>
+      <c r="H249">
+        <v>8161.1669999999986</v>
       </c>
       <c r="I249">
-        <v>7.25</v>
+        <v>5.5</v>
+      </c>
+      <c r="J249">
+        <v>20.05</v>
       </c>
       <c r="K249" s="2">
-        <v>43802</v>
+        <v>43819</v>
       </c>
       <c r="L249">
-        <v>8254.7369999999992</v>
+        <v>8678.491</v>
       </c>
       <c r="M249">
-        <v>725</v>
+        <v>-550</v>
       </c>
       <c r="N249" t="s">
         <v>18</v>
       </c>
       <c r="O249">
-        <v>725</v>
+        <v>-550</v>
       </c>
       <c r="P249" t="s">
         <v>19</v>
@@ -13430,16 +13448,16 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B250" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C250" s="2">
-        <v>43802</v>
+        <v>43770</v>
       </c>
       <c r="D250" s="2">
-        <v>43847</v>
+        <v>43819</v>
       </c>
       <c r="E250" t="s">
         <v>16</v>
@@ -13448,25 +13466,31 @@
         <v>22</v>
       </c>
       <c r="G250">
-        <v>9150</v>
+        <v>9800</v>
+      </c>
+      <c r="H250">
+        <v>8161.1669999999986</v>
       </c>
       <c r="I250">
-        <v>0.93</v>
+        <v>0.04</v>
+      </c>
+      <c r="J250">
+        <v>20.079999999999998</v>
       </c>
       <c r="K250" s="2">
-        <v>43802</v>
+        <v>43819</v>
       </c>
       <c r="L250">
-        <v>8254.7369999999992</v>
+        <v>8678.491</v>
       </c>
       <c r="M250">
-        <v>-93</v>
+        <v>-4</v>
       </c>
       <c r="N250" t="s">
         <v>18</v>
       </c>
       <c r="O250">
-        <v>-93</v>
+        <v>-4</v>
       </c>
       <c r="P250" t="s">
         <v>19</v>
@@ -13474,49 +13498,49 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B251" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C251" s="2">
-        <v>43801</v>
+        <v>43770</v>
       </c>
       <c r="D251" s="2">
-        <v>43847</v>
+        <v>43819</v>
       </c>
       <c r="E251" t="s">
         <v>21</v>
       </c>
       <c r="F251" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G251">
-        <v>6650</v>
+        <v>7350</v>
       </c>
       <c r="H251">
-        <v>8309.26</v>
+        <v>8161.1669999999986</v>
       </c>
       <c r="I251">
-        <v>6.45</v>
+        <v>31.75</v>
       </c>
       <c r="J251">
-        <v>19.97</v>
+        <v>9.94</v>
       </c>
       <c r="K251" s="2">
-        <v>43802</v>
+        <v>43819</v>
       </c>
       <c r="L251">
-        <v>8254.7369999999992</v>
+        <v>8678.491</v>
       </c>
       <c r="M251">
-        <v>-645</v>
+        <v>3175</v>
       </c>
       <c r="N251" t="s">
         <v>18</v>
       </c>
       <c r="O251">
-        <v>-645</v>
+        <v>3175</v>
       </c>
       <c r="P251" t="s">
         <v>19</v>
@@ -13527,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="B252" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="C252" s="2">
         <v>43801</v>
@@ -13539,19 +13563,19 @@
         <v>16</v>
       </c>
       <c r="F252" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G252">
-        <v>9900</v>
+        <v>9150</v>
       </c>
       <c r="H252">
         <v>8309.26</v>
       </c>
       <c r="I252">
-        <v>0.04</v>
+        <v>1.18</v>
       </c>
       <c r="J252">
-        <v>19.14</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="K252" s="2">
         <v>43802</v>
@@ -13560,13 +13584,13 @@
         <v>8254.7369999999992</v>
       </c>
       <c r="M252">
-        <v>-4</v>
+        <v>118</v>
       </c>
       <c r="N252" t="s">
         <v>18</v>
       </c>
       <c r="O252">
-        <v>-4</v>
+        <v>118</v>
       </c>
       <c r="P252" t="s">
         <v>19</v>
@@ -13574,13 +13598,13 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B253" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="C253" s="2">
-        <v>43801</v>
+        <v>43802</v>
       </c>
       <c r="D253" s="2">
         <v>43847</v>
@@ -13592,16 +13616,10 @@
         <v>17</v>
       </c>
       <c r="G253">
-        <v>7475</v>
-      </c>
-      <c r="H253">
-        <v>8309.26</v>
+        <v>6650</v>
       </c>
       <c r="I253">
-        <v>31.65</v>
-      </c>
-      <c r="J253">
-        <v>10.039999999999999</v>
+        <v>7.25</v>
       </c>
       <c r="K253" s="2">
         <v>43802</v>
@@ -13610,13 +13628,13 @@
         <v>8254.7369999999992</v>
       </c>
       <c r="M253">
-        <v>3165</v>
+        <v>725</v>
       </c>
       <c r="N253" t="s">
         <v>18</v>
       </c>
       <c r="O253">
-        <v>3165</v>
+        <v>725</v>
       </c>
       <c r="P253" t="s">
         <v>19</v>
@@ -13624,10 +13642,10 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B254" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C254" s="2">
         <v>43802</v>
@@ -13636,16 +13654,16 @@
         <v>43847</v>
       </c>
       <c r="E254" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F254" t="s">
         <v>22</v>
       </c>
       <c r="G254">
-        <v>7475</v>
+        <v>9150</v>
       </c>
       <c r="I254">
-        <v>48.35</v>
+        <v>0.93</v>
       </c>
       <c r="K254" s="2">
         <v>43802</v>
@@ -13654,13 +13672,13 @@
         <v>8254.7369999999992</v>
       </c>
       <c r="M254">
-        <v>-4835</v>
+        <v>-93</v>
       </c>
       <c r="N254" t="s">
         <v>18</v>
       </c>
       <c r="O254">
-        <v>-4835</v>
+        <v>-93</v>
       </c>
       <c r="P254" t="s">
         <v>19</v>
@@ -13668,28 +13686,34 @@
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B255" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C255" s="2">
-        <v>43802</v>
+        <v>43801</v>
       </c>
       <c r="D255" s="2">
         <v>43847</v>
       </c>
       <c r="E255" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F255" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G255">
-        <v>9900</v>
+        <v>6650</v>
+      </c>
+      <c r="H255">
+        <v>8309.26</v>
       </c>
       <c r="I255">
-        <v>0.04</v>
+        <v>6.45</v>
+      </c>
+      <c r="J255">
+        <v>19.97</v>
       </c>
       <c r="K255" s="2">
         <v>43802</v>
@@ -13698,13 +13722,13 @@
         <v>8254.7369999999992</v>
       </c>
       <c r="M255">
-        <v>4</v>
+        <v>-645</v>
       </c>
       <c r="N255" t="s">
         <v>18</v>
       </c>
       <c r="O255">
-        <v>4</v>
+        <v>-645</v>
       </c>
       <c r="P255" t="s">
         <v>19</v>
@@ -13712,49 +13736,49 @@
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B256" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="C256" s="2">
-        <v>43832</v>
+        <v>43801</v>
       </c>
       <c r="D256" s="2">
-        <v>43882</v>
+        <v>43847</v>
       </c>
       <c r="E256" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F256" t="s">
         <v>22</v>
       </c>
       <c r="G256">
-        <v>7100</v>
+        <v>9900</v>
       </c>
       <c r="H256">
-        <v>8872.219000000001</v>
+        <v>8309.26</v>
       </c>
       <c r="I256">
-        <v>8.1</v>
+        <v>0.04</v>
       </c>
       <c r="J256">
-        <v>19.97</v>
+        <v>19.14</v>
       </c>
       <c r="K256" s="2">
-        <v>43857</v>
+        <v>43802</v>
       </c>
       <c r="L256">
-        <v>8952.1779999999999</v>
+        <v>8254.7369999999992</v>
       </c>
       <c r="M256">
-        <v>-810</v>
+        <v>-4</v>
       </c>
       <c r="N256" t="s">
         <v>18</v>
       </c>
       <c r="O256">
-        <v>-810</v>
+        <v>-4</v>
       </c>
       <c r="P256" t="s">
         <v>19</v>
@@ -13762,43 +13786,49 @@
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C257" s="2">
-        <v>43857</v>
+        <v>43801</v>
       </c>
       <c r="D257" s="2">
-        <v>43882</v>
+        <v>43847</v>
       </c>
       <c r="E257" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F257" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G257">
-        <v>9800</v>
+        <v>7475</v>
+      </c>
+      <c r="H257">
+        <v>8309.26</v>
       </c>
       <c r="I257">
-        <v>0.76</v>
+        <v>31.65</v>
+      </c>
+      <c r="J257">
+        <v>10.039999999999999</v>
       </c>
       <c r="K257" s="2">
-        <v>43857</v>
+        <v>43802</v>
       </c>
       <c r="L257">
-        <v>8952.1779999999999</v>
+        <v>8254.7369999999992</v>
       </c>
       <c r="M257">
-        <v>-76</v>
+        <v>3165</v>
       </c>
       <c r="N257" t="s">
         <v>18</v>
       </c>
       <c r="O257">
-        <v>-76</v>
+        <v>3165</v>
       </c>
       <c r="P257" t="s">
         <v>19</v>
@@ -13806,43 +13836,43 @@
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B258" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="C258" s="2">
-        <v>43857</v>
+        <v>43802</v>
       </c>
       <c r="D258" s="2">
-        <v>43882</v>
+        <v>43847</v>
       </c>
       <c r="E258" t="s">
         <v>21</v>
       </c>
       <c r="F258" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G258">
-        <v>7100</v>
+        <v>7475</v>
       </c>
       <c r="I258">
-        <v>2.8</v>
+        <v>48.35</v>
       </c>
       <c r="K258" s="2">
-        <v>43857</v>
+        <v>43802</v>
       </c>
       <c r="L258">
-        <v>8952.1779999999999</v>
+        <v>8254.7369999999992</v>
       </c>
       <c r="M258">
-        <v>280</v>
+        <v>-4835</v>
       </c>
       <c r="N258" t="s">
         <v>18</v>
       </c>
       <c r="O258">
-        <v>280</v>
+        <v>-4835</v>
       </c>
       <c r="P258" t="s">
         <v>19</v>
@@ -13850,16 +13880,16 @@
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B259" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C259" s="2">
-        <v>43832</v>
+        <v>43802</v>
       </c>
       <c r="D259" s="2">
-        <v>43882</v>
+        <v>43847</v>
       </c>
       <c r="E259" t="s">
         <v>16</v>
@@ -13868,31 +13898,25 @@
         <v>17</v>
       </c>
       <c r="G259">
-        <v>9800</v>
-      </c>
-      <c r="H259">
-        <v>8872.219000000001</v>
+        <v>9900</v>
       </c>
       <c r="I259">
-        <v>1.83</v>
-      </c>
-      <c r="J259">
-        <v>10.46</v>
+        <v>0.04</v>
       </c>
       <c r="K259" s="2">
-        <v>43857</v>
+        <v>43802</v>
       </c>
       <c r="L259">
-        <v>8952.1779999999999</v>
+        <v>8254.7369999999992</v>
       </c>
       <c r="M259">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="N259" t="s">
         <v>18</v>
       </c>
       <c r="O259">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="P259" t="s">
         <v>19</v>
@@ -13900,49 +13924,49 @@
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B260" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C260" s="2">
-        <v>43864</v>
+        <v>43832</v>
       </c>
       <c r="D260" s="2">
-        <v>43910</v>
+        <v>43882</v>
       </c>
       <c r="E260" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F260" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G260">
-        <v>10000</v>
+        <v>7100</v>
       </c>
       <c r="H260">
-        <v>9126.232</v>
+        <v>8872.219000000001</v>
       </c>
       <c r="I260">
-        <v>2.77</v>
+        <v>8.1</v>
       </c>
       <c r="J260">
-        <v>9.57</v>
+        <v>19.97</v>
       </c>
       <c r="K260" s="2">
-        <v>43885</v>
+        <v>43857</v>
       </c>
       <c r="L260">
-        <v>9079.6319999999996</v>
+        <v>8952.1779999999999</v>
       </c>
       <c r="M260">
-        <v>277</v>
+        <v>-810</v>
       </c>
       <c r="N260" t="s">
         <v>18</v>
       </c>
       <c r="O260">
-        <v>277</v>
+        <v>-810</v>
       </c>
       <c r="P260" t="s">
         <v>19</v>
@@ -13950,49 +13974,43 @@
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B261" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C261" s="2">
-        <v>43864</v>
+        <v>43857</v>
       </c>
       <c r="D261" s="2">
-        <v>43910</v>
+        <v>43882</v>
       </c>
       <c r="E261" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F261" t="s">
         <v>22</v>
       </c>
       <c r="G261">
-        <v>7300</v>
-      </c>
-      <c r="H261">
-        <v>9126.232</v>
+        <v>9800</v>
       </c>
       <c r="I261">
-        <v>12.7</v>
-      </c>
-      <c r="J261">
-        <v>20.010000000000002</v>
+        <v>0.76</v>
       </c>
       <c r="K261" s="2">
-        <v>43885</v>
+        <v>43857</v>
       </c>
       <c r="L261">
-        <v>9079.6319999999996</v>
+        <v>8952.1779999999999</v>
       </c>
       <c r="M261">
-        <v>-1270</v>
+        <v>-76</v>
       </c>
       <c r="N261" t="s">
         <v>18</v>
       </c>
       <c r="O261">
-        <v>-1270</v>
+        <v>-76</v>
       </c>
       <c r="P261" t="s">
         <v>19</v>
@@ -14000,43 +14018,43 @@
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C262" s="2">
-        <v>43885</v>
+        <v>43857</v>
       </c>
       <c r="D262" s="2">
-        <v>43910</v>
+        <v>43882</v>
       </c>
       <c r="E262" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F262" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G262">
-        <v>10000</v>
+        <v>7100</v>
       </c>
       <c r="I262">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="K262" s="2">
-        <v>43885</v>
+        <v>43857</v>
       </c>
       <c r="L262">
-        <v>9079.6319999999996</v>
+        <v>8952.1779999999999</v>
       </c>
       <c r="M262">
-        <v>-400</v>
+        <v>280</v>
       </c>
       <c r="N262" t="s">
         <v>18</v>
       </c>
       <c r="O262">
-        <v>-400</v>
+        <v>280</v>
       </c>
       <c r="P262" t="s">
         <v>19</v>
@@ -14044,43 +14062,49 @@
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B263" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C263" s="2">
-        <v>43885</v>
+        <v>43832</v>
       </c>
       <c r="D263" s="2">
-        <v>43910</v>
+        <v>43882</v>
       </c>
       <c r="E263" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F263" t="s">
         <v>17</v>
       </c>
       <c r="G263">
-        <v>7300</v>
+        <v>9800</v>
+      </c>
+      <c r="H263">
+        <v>8872.219000000001</v>
       </c>
       <c r="I263">
-        <v>10.37</v>
+        <v>1.83</v>
+      </c>
+      <c r="J263">
+        <v>10.46</v>
       </c>
       <c r="K263" s="2">
-        <v>43885</v>
+        <v>43857</v>
       </c>
       <c r="L263">
-        <v>9079.6319999999996</v>
+        <v>8952.1779999999999</v>
       </c>
       <c r="M263">
-        <v>1037</v>
+        <v>183</v>
       </c>
       <c r="N263" t="s">
         <v>18</v>
       </c>
       <c r="O263">
-        <v>1037</v>
+        <v>183</v>
       </c>
       <c r="P263" t="s">
         <v>19</v>
@@ -14088,16 +14112,16 @@
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B264" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C264" s="2">
-        <v>43892</v>
+        <v>43864</v>
       </c>
       <c r="D264" s="2">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="E264" t="s">
         <v>16</v>
@@ -14106,31 +14130,31 @@
         <v>17</v>
       </c>
       <c r="G264">
-        <v>9775</v>
+        <v>10000</v>
       </c>
       <c r="H264">
-        <v>8877.978000000001</v>
+        <v>9126.232</v>
       </c>
       <c r="I264">
-        <v>15.45</v>
+        <v>2.77</v>
       </c>
       <c r="J264">
-        <v>10.1</v>
+        <v>9.57</v>
       </c>
       <c r="K264" s="2">
-        <v>43938</v>
+        <v>43885</v>
       </c>
       <c r="L264">
-        <v>8832.4140000000007</v>
+        <v>9079.6319999999996</v>
       </c>
       <c r="M264">
-        <v>1545</v>
+        <v>277</v>
       </c>
       <c r="N264" t="s">
         <v>18</v>
       </c>
       <c r="O264">
-        <v>1545</v>
+        <v>277</v>
       </c>
       <c r="P264" t="s">
         <v>19</v>
@@ -14138,16 +14162,16 @@
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B265" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C265" s="2">
-        <v>43892</v>
+        <v>43864</v>
       </c>
       <c r="D265" s="2">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="E265" t="s">
         <v>21</v>
@@ -14156,31 +14180,31 @@
         <v>22</v>
       </c>
       <c r="G265">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="H265">
-        <v>8877.978000000001</v>
+        <v>9126.232</v>
       </c>
       <c r="I265">
-        <v>62.5</v>
+        <v>12.7</v>
       </c>
       <c r="J265">
-        <v>20.03</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="K265" s="2">
-        <v>43938</v>
+        <v>43885</v>
       </c>
       <c r="L265">
-        <v>8832.4140000000007</v>
+        <v>9079.6319999999996</v>
       </c>
       <c r="M265">
-        <v>-6250</v>
+        <v>-1270</v>
       </c>
       <c r="N265" t="s">
         <v>18</v>
       </c>
       <c r="O265">
-        <v>-6250</v>
+        <v>-1270</v>
       </c>
       <c r="P265" t="s">
         <v>19</v>
@@ -14188,16 +14212,16 @@
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B266" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C266" s="2">
-        <v>43892</v>
+        <v>43885</v>
       </c>
       <c r="D266" s="2">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="E266" t="s">
         <v>16</v>
@@ -14206,31 +14230,25 @@
         <v>22</v>
       </c>
       <c r="G266">
-        <v>10700</v>
-      </c>
-      <c r="H266">
-        <v>8877.978000000001</v>
+        <v>10000</v>
       </c>
       <c r="I266">
-        <v>1.52</v>
-      </c>
-      <c r="J266">
-        <v>20.52</v>
+        <v>4</v>
       </c>
       <c r="K266" s="2">
-        <v>43938</v>
+        <v>43885</v>
       </c>
       <c r="L266">
-        <v>8832.4140000000007</v>
+        <v>9079.6319999999996</v>
       </c>
       <c r="M266">
-        <v>-152</v>
+        <v>-400</v>
       </c>
       <c r="N266" t="s">
         <v>18</v>
       </c>
       <c r="O266">
-        <v>-152</v>
+        <v>-400</v>
       </c>
       <c r="P266" t="s">
         <v>19</v>
@@ -14238,16 +14256,16 @@
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C267" s="2">
-        <v>43892</v>
+        <v>43885</v>
       </c>
       <c r="D267" s="2">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="E267" t="s">
         <v>21</v>
@@ -14256,31 +14274,25 @@
         <v>17</v>
       </c>
       <c r="G267">
-        <v>8000</v>
-      </c>
-      <c r="H267">
-        <v>8877.978000000001</v>
+        <v>7300</v>
       </c>
       <c r="I267">
-        <v>170.52</v>
-      </c>
-      <c r="J267">
-        <v>9.89</v>
+        <v>10.37</v>
       </c>
       <c r="K267" s="2">
-        <v>43938</v>
+        <v>43885</v>
       </c>
       <c r="L267">
-        <v>8832.4140000000007</v>
+        <v>9079.6319999999996</v>
       </c>
       <c r="M267">
-        <v>17052</v>
+        <v>1037</v>
       </c>
       <c r="N267" t="s">
         <v>18</v>
       </c>
       <c r="O267">
-        <v>17052</v>
+        <v>1037</v>
       </c>
       <c r="P267" t="s">
         <v>19</v>
@@ -14288,49 +14300,49 @@
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C268" s="2">
-        <v>43922</v>
+        <v>43892</v>
       </c>
       <c r="D268" s="2">
-        <v>43966</v>
+        <v>43938</v>
       </c>
       <c r="E268" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F268" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G268">
-        <v>6000</v>
+        <v>9775</v>
       </c>
       <c r="H268">
-        <v>7486.2869999999994</v>
+        <v>8877.978000000001</v>
       </c>
       <c r="I268">
-        <v>102.5</v>
+        <v>15.45</v>
       </c>
       <c r="J268">
-        <v>19.850000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="K268" s="2">
-        <v>43966</v>
+        <v>43938</v>
       </c>
       <c r="L268">
-        <v>9152.639000000001</v>
+        <v>8832.4140000000007</v>
       </c>
       <c r="M268">
-        <v>-10250</v>
+        <v>1545</v>
       </c>
       <c r="N268" t="s">
         <v>18</v>
       </c>
       <c r="O268">
-        <v>-10250</v>
+        <v>1545</v>
       </c>
       <c r="P268" t="s">
         <v>19</v>
@@ -14338,66 +14350,66 @@
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B269" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C269" s="2">
-        <v>43922</v>
+        <v>43892</v>
       </c>
       <c r="D269" s="2">
-        <v>43966</v>
+        <v>43938</v>
       </c>
       <c r="E269" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F269" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G269">
-        <v>8250</v>
+        <v>7100</v>
       </c>
       <c r="H269">
-        <v>7486.2869999999994</v>
+        <v>8877.978000000001</v>
       </c>
       <c r="I269">
-        <v>135.1</v>
+        <v>62.5</v>
       </c>
       <c r="J269">
-        <v>10.199999999999999</v>
+        <v>20.03</v>
       </c>
       <c r="K269" s="2">
-        <v>43966</v>
+        <v>43938</v>
       </c>
       <c r="L269">
-        <v>9152.639000000001</v>
+        <v>8832.4140000000007</v>
       </c>
       <c r="M269">
-        <v>13510</v>
+        <v>-6250</v>
       </c>
       <c r="N269" t="s">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="O269">
-        <v>-76753.900000000111</v>
+        <v>-6250</v>
       </c>
       <c r="P269" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B270" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C270" s="2">
-        <v>43922</v>
+        <v>43892</v>
       </c>
       <c r="D270" s="2">
-        <v>43966</v>
+        <v>43938</v>
       </c>
       <c r="E270" t="s">
         <v>16</v>
@@ -14406,48 +14418,48 @@
         <v>22</v>
       </c>
       <c r="G270">
-        <v>9000</v>
+        <v>10700</v>
       </c>
       <c r="H270">
-        <v>7486.2869999999994</v>
+        <v>8877.978000000001</v>
       </c>
       <c r="I270">
-        <v>22</v>
+        <v>1.52</v>
       </c>
       <c r="J270">
-        <v>20.22</v>
+        <v>20.52</v>
       </c>
       <c r="K270" s="2">
-        <v>43966</v>
+        <v>43938</v>
       </c>
       <c r="L270">
-        <v>9152.639000000001</v>
+        <v>8832.4140000000007</v>
       </c>
       <c r="M270">
-        <v>-2200</v>
+        <v>-152</v>
       </c>
       <c r="N270" t="s">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="O270">
-        <v>13063.9000000001</v>
+        <v>-152</v>
       </c>
       <c r="P270" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B271" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C271" s="2">
-        <v>43922</v>
+        <v>43892</v>
       </c>
       <c r="D271" s="2">
-        <v>43966</v>
+        <v>43938</v>
       </c>
       <c r="E271" t="s">
         <v>21</v>
@@ -14456,31 +14468,31 @@
         <v>17</v>
       </c>
       <c r="G271">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="H271">
-        <v>7486.2869999999994</v>
+        <v>8877.978000000001</v>
       </c>
       <c r="I271">
-        <v>280.75</v>
+        <v>170.52</v>
       </c>
       <c r="J271">
-        <v>9.84</v>
+        <v>9.89</v>
       </c>
       <c r="K271" s="2">
-        <v>43966</v>
+        <v>43938</v>
       </c>
       <c r="L271">
-        <v>9152.639000000001</v>
+        <v>8832.4140000000007</v>
       </c>
       <c r="M271">
-        <v>28075</v>
+        <v>17052</v>
       </c>
       <c r="N271" t="s">
         <v>18</v>
       </c>
       <c r="O271">
-        <v>28075</v>
+        <v>17052</v>
       </c>
       <c r="P271" t="s">
         <v>19</v>
@@ -14488,43 +14500,49 @@
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B272" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C272" s="2">
-        <v>43993</v>
+        <v>43922</v>
       </c>
       <c r="D272" s="2">
-        <v>44001</v>
+        <v>43966</v>
       </c>
       <c r="E272" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F272" t="s">
         <v>22</v>
       </c>
       <c r="G272">
-        <v>9600</v>
+        <v>6000</v>
+      </c>
+      <c r="H272">
+        <v>7486.2869999999994</v>
       </c>
       <c r="I272">
-        <v>210.85</v>
+        <v>102.5</v>
+      </c>
+      <c r="J272">
+        <v>19.850000000000001</v>
       </c>
       <c r="K272" s="2">
-        <v>43993</v>
+        <v>43966</v>
       </c>
       <c r="L272">
-        <v>9588.4789999999994</v>
+        <v>9152.639000000001</v>
       </c>
       <c r="M272">
-        <v>-21085</v>
+        <v>-10250</v>
       </c>
       <c r="N272" t="s">
         <v>18</v>
       </c>
       <c r="O272">
-        <v>-21085</v>
+        <v>-10250</v>
       </c>
       <c r="P272" t="s">
         <v>19</v>
@@ -14532,143 +14550,149 @@
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B273" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C273" s="2">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="D273" s="2">
-        <v>44001</v>
+        <v>43966</v>
       </c>
       <c r="E273" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F273" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G273">
-        <v>6975</v>
+        <v>8250</v>
       </c>
       <c r="H273">
-        <v>8718.1790000000001</v>
+        <v>7486.2869999999994</v>
       </c>
       <c r="I273">
-        <v>70.150000000000006</v>
+        <v>135.1</v>
       </c>
       <c r="J273">
-        <v>19.989999999999998</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="K273" s="2">
-        <v>43993</v>
+        <v>43966</v>
       </c>
       <c r="L273">
-        <v>9588.4789999999994</v>
+        <v>9152.639000000001</v>
       </c>
       <c r="M273">
-        <v>-7015.0000000000009</v>
+        <v>13510</v>
       </c>
       <c r="N273" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="O273">
-        <v>-7015.0000000000009</v>
+        <v>-76753.900000000111</v>
       </c>
       <c r="P273" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B274" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C274" s="2">
-        <v>43993</v>
+        <v>43922</v>
       </c>
       <c r="D274" s="2">
-        <v>44001</v>
+        <v>43966</v>
       </c>
       <c r="E274" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F274" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G274">
-        <v>6975</v>
+        <v>9000</v>
+      </c>
+      <c r="H274">
+        <v>7486.2869999999994</v>
       </c>
       <c r="I274">
-        <v>2.15</v>
+        <v>22</v>
+      </c>
+      <c r="J274">
+        <v>20.22</v>
       </c>
       <c r="K274" s="2">
-        <v>43993</v>
+        <v>43966</v>
       </c>
       <c r="L274">
-        <v>9588.4789999999994</v>
+        <v>9152.639000000001</v>
       </c>
       <c r="M274">
-        <v>215</v>
+        <v>-2200</v>
       </c>
       <c r="N274" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="O274">
-        <v>215</v>
+        <v>13063.9000000001</v>
       </c>
       <c r="P274" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B275" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C275" s="2">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="D275" s="2">
-        <v>44001</v>
+        <v>43966</v>
       </c>
       <c r="E275" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F275" t="s">
         <v>17</v>
       </c>
       <c r="G275">
-        <v>9600</v>
+        <v>6750</v>
       </c>
       <c r="H275">
-        <v>8718.1790000000001</v>
+        <v>7486.2869999999994</v>
       </c>
       <c r="I275">
-        <v>66.2</v>
+        <v>280.75</v>
       </c>
       <c r="J275">
-        <v>10.11</v>
+        <v>9.84</v>
       </c>
       <c r="K275" s="2">
-        <v>43993</v>
+        <v>43966</v>
       </c>
       <c r="L275">
-        <v>9588.4789999999994</v>
+        <v>9152.639000000001</v>
       </c>
       <c r="M275">
-        <v>6620</v>
+        <v>28075</v>
       </c>
       <c r="N275" t="s">
         <v>18</v>
       </c>
       <c r="O275">
-        <v>6620</v>
+        <v>28075</v>
       </c>
       <c r="P275" t="s">
         <v>19</v>
@@ -14676,13 +14700,13 @@
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B276" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C276" s="2">
-        <v>43952</v>
+        <v>43993</v>
       </c>
       <c r="D276" s="2">
         <v>44001</v>
@@ -14694,16 +14718,10 @@
         <v>22</v>
       </c>
       <c r="G276">
-        <v>10450</v>
-      </c>
-      <c r="H276">
-        <v>8718.1790000000001</v>
+        <v>9600</v>
       </c>
       <c r="I276">
-        <v>4.5</v>
-      </c>
-      <c r="J276">
-        <v>19.86</v>
+        <v>210.85</v>
       </c>
       <c r="K276" s="2">
         <v>43993</v>
@@ -14712,13 +14730,13 @@
         <v>9588.4789999999994</v>
       </c>
       <c r="M276">
-        <v>-450</v>
+        <v>-21085</v>
       </c>
       <c r="N276" t="s">
         <v>18</v>
       </c>
       <c r="O276">
-        <v>-450</v>
+        <v>-21085</v>
       </c>
       <c r="P276" t="s">
         <v>19</v>
@@ -14726,10 +14744,10 @@
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B277" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="C277" s="2">
         <v>43952</v>
@@ -14741,19 +14759,19 @@
         <v>21</v>
       </c>
       <c r="F277" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G277">
-        <v>7850</v>
+        <v>6975</v>
       </c>
       <c r="H277">
         <v>8718.1790000000001</v>
       </c>
       <c r="I277">
-        <v>182.35</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="J277">
-        <v>9.9600000000000009</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="K277" s="2">
         <v>43993</v>
@@ -14762,13 +14780,13 @@
         <v>9588.4789999999994</v>
       </c>
       <c r="M277">
-        <v>18235</v>
+        <v>-7015.0000000000009</v>
       </c>
       <c r="N277" t="s">
         <v>18</v>
       </c>
       <c r="O277">
-        <v>18235</v>
+        <v>-7015.0000000000009</v>
       </c>
       <c r="P277" t="s">
         <v>19</v>
@@ -14776,10 +14794,10 @@
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B278" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="C278" s="2">
         <v>43993</v>
@@ -14791,13 +14809,13 @@
         <v>21</v>
       </c>
       <c r="F278" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G278">
-        <v>7850</v>
+        <v>6975</v>
       </c>
       <c r="I278">
-        <v>5.0999999999999996</v>
+        <v>2.15</v>
       </c>
       <c r="K278" s="2">
         <v>43993</v>
@@ -14806,13 +14824,13 @@
         <v>9588.4789999999994</v>
       </c>
       <c r="M278">
-        <v>-509.99999999999989</v>
+        <v>215</v>
       </c>
       <c r="N278" t="s">
         <v>18</v>
       </c>
       <c r="O278">
-        <v>-509.99999999999989</v>
+        <v>215</v>
       </c>
       <c r="P278" t="s">
         <v>19</v>
@@ -14820,13 +14838,13 @@
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C279" s="2">
-        <v>43993</v>
+        <v>43952</v>
       </c>
       <c r="D279" s="2">
         <v>44001</v>
@@ -14838,10 +14856,16 @@
         <v>17</v>
       </c>
       <c r="G279">
-        <v>10450</v>
+        <v>9600</v>
+      </c>
+      <c r="H279">
+        <v>8718.1790000000001</v>
       </c>
       <c r="I279">
-        <v>17.3</v>
+        <v>66.2</v>
+      </c>
+      <c r="J279">
+        <v>10.11</v>
       </c>
       <c r="K279" s="2">
         <v>43993</v>
@@ -14850,13 +14874,13 @@
         <v>9588.4789999999994</v>
       </c>
       <c r="M279">
-        <v>1730</v>
+        <v>6620</v>
       </c>
       <c r="N279" t="s">
         <v>18</v>
       </c>
       <c r="O279">
-        <v>1730</v>
+        <v>6620</v>
       </c>
       <c r="P279" t="s">
         <v>19</v>
@@ -14864,16 +14888,16 @@
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="C280" s="2">
-        <v>43993</v>
+        <v>43952</v>
       </c>
       <c r="D280" s="2">
-        <v>44029</v>
+        <v>44001</v>
       </c>
       <c r="E280" t="s">
         <v>16</v>
@@ -14882,10 +14906,16 @@
         <v>22</v>
       </c>
       <c r="G280">
-        <v>10550</v>
+        <v>10450</v>
+      </c>
+      <c r="H280">
+        <v>8718.1790000000001</v>
       </c>
       <c r="I280">
-        <v>50.4</v>
+        <v>4.5</v>
+      </c>
+      <c r="J280">
+        <v>19.86</v>
       </c>
       <c r="K280" s="2">
         <v>43993</v>
@@ -14894,13 +14924,13 @@
         <v>9588.4789999999994</v>
       </c>
       <c r="M280">
-        <v>-5040</v>
+        <v>-450</v>
       </c>
       <c r="N280" t="s">
         <v>18</v>
       </c>
       <c r="O280">
-        <v>-5040</v>
+        <v>-450</v>
       </c>
       <c r="P280" t="s">
         <v>19</v>
@@ -14908,16 +14938,16 @@
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B281" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="C281" s="2">
-        <v>43993</v>
+        <v>43952</v>
       </c>
       <c r="D281" s="2">
-        <v>44029</v>
+        <v>44001</v>
       </c>
       <c r="E281" t="s">
         <v>21</v>
@@ -14926,10 +14956,16 @@
         <v>17</v>
       </c>
       <c r="G281">
-        <v>7675</v>
+        <v>7850</v>
+      </c>
+      <c r="H281">
+        <v>8718.1790000000001</v>
       </c>
       <c r="I281">
-        <v>34.75</v>
+        <v>182.35</v>
+      </c>
+      <c r="J281">
+        <v>9.9600000000000009</v>
       </c>
       <c r="K281" s="2">
         <v>43993</v>
@@ -14938,13 +14974,13 @@
         <v>9588.4789999999994</v>
       </c>
       <c r="M281">
-        <v>3475</v>
+        <v>18235</v>
       </c>
       <c r="N281" t="s">
         <v>18</v>
       </c>
       <c r="O281">
-        <v>3475</v>
+        <v>18235</v>
       </c>
       <c r="P281" t="s">
         <v>19</v>
@@ -14952,34 +14988,28 @@
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B282" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="C282" s="2">
-        <v>43983</v>
+        <v>43993</v>
       </c>
       <c r="D282" s="2">
-        <v>44029</v>
+        <v>44001</v>
       </c>
       <c r="E282" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F282" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G282">
-        <v>10550</v>
-      </c>
-      <c r="H282">
-        <v>9598.8869999999988</v>
+        <v>7850</v>
       </c>
       <c r="I282">
-        <v>22.85</v>
-      </c>
-      <c r="J282">
-        <v>9.91</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K282" s="2">
         <v>43993</v>
@@ -14988,13 +15018,13 @@
         <v>9588.4789999999994</v>
       </c>
       <c r="M282">
-        <v>2285</v>
+        <v>-509.99999999999989</v>
       </c>
       <c r="N282" t="s">
         <v>18</v>
       </c>
       <c r="O282">
-        <v>2285</v>
+        <v>-509.99999999999989</v>
       </c>
       <c r="P282" t="s">
         <v>19</v>
@@ -15002,34 +15032,28 @@
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B283" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C283" s="2">
-        <v>43983</v>
+        <v>43993</v>
       </c>
       <c r="D283" s="2">
-        <v>44029</v>
+        <v>44001</v>
       </c>
       <c r="E283" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F283" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G283">
-        <v>7675</v>
-      </c>
-      <c r="H283">
-        <v>9598.8869999999988</v>
+        <v>10450</v>
       </c>
       <c r="I283">
-        <v>34.049999999999997</v>
-      </c>
-      <c r="J283">
-        <v>20.04</v>
+        <v>17.3</v>
       </c>
       <c r="K283" s="2">
         <v>43993</v>
@@ -15038,13 +15062,13 @@
         <v>9588.4789999999994</v>
       </c>
       <c r="M283">
-        <v>-3405</v>
+        <v>1730</v>
       </c>
       <c r="N283" t="s">
         <v>18</v>
       </c>
       <c r="O283">
-        <v>-3405</v>
+        <v>1730</v>
       </c>
       <c r="P283" t="s">
         <v>19</v>
@@ -15052,10 +15076,10 @@
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B284" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="C284" s="2">
         <v>43993</v>
@@ -15064,16 +15088,16 @@
         <v>44029</v>
       </c>
       <c r="E284" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F284" t="s">
         <v>22</v>
       </c>
       <c r="G284">
-        <v>8650</v>
+        <v>10550</v>
       </c>
       <c r="I284">
-        <v>98.2</v>
+        <v>50.4</v>
       </c>
       <c r="K284" s="2">
         <v>43993</v>
@@ -15082,13 +15106,13 @@
         <v>9588.4789999999994</v>
       </c>
       <c r="M284">
-        <v>-9820</v>
+        <v>-5040</v>
       </c>
       <c r="N284" t="s">
         <v>18</v>
       </c>
       <c r="O284">
-        <v>-9820</v>
+        <v>-5040</v>
       </c>
       <c r="P284" t="s">
         <v>19</v>
@@ -15096,10 +15120,10 @@
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C285" s="2">
         <v>43993</v>
@@ -15108,16 +15132,16 @@
         <v>44029</v>
       </c>
       <c r="E285" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F285" t="s">
         <v>17</v>
       </c>
       <c r="G285">
-        <v>11500</v>
+        <v>7675</v>
       </c>
       <c r="I285">
-        <v>5.8</v>
+        <v>34.75</v>
       </c>
       <c r="K285" s="2">
         <v>43993</v>
@@ -15126,13 +15150,13 @@
         <v>9588.4789999999994</v>
       </c>
       <c r="M285">
-        <v>580</v>
+        <v>3475</v>
       </c>
       <c r="N285" t="s">
         <v>18</v>
       </c>
       <c r="O285">
-        <v>580</v>
+        <v>3475</v>
       </c>
       <c r="P285" t="s">
         <v>19</v>
@@ -15140,10 +15164,10 @@
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B286" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="C286" s="2">
         <v>43983</v>
@@ -15152,22 +15176,22 @@
         <v>44029</v>
       </c>
       <c r="E286" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F286" t="s">
         <v>17</v>
       </c>
       <c r="G286">
-        <v>8650</v>
+        <v>10550</v>
       </c>
       <c r="H286">
         <v>9598.8869999999988</v>
       </c>
       <c r="I286">
-        <v>111.75</v>
+        <v>22.85</v>
       </c>
       <c r="J286">
-        <v>9.89</v>
+        <v>9.91</v>
       </c>
       <c r="K286" s="2">
         <v>43993</v>
@@ -15176,13 +15200,13 @@
         <v>9588.4789999999994</v>
       </c>
       <c r="M286">
-        <v>11175</v>
+        <v>2285</v>
       </c>
       <c r="N286" t="s">
         <v>18</v>
       </c>
       <c r="O286">
-        <v>11175</v>
+        <v>2285</v>
       </c>
       <c r="P286" t="s">
         <v>19</v>
@@ -15190,10 +15214,10 @@
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B287" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C287" s="2">
         <v>43983</v>
@@ -15202,22 +15226,22 @@
         <v>44029</v>
       </c>
       <c r="E287" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F287" t="s">
         <v>22</v>
       </c>
       <c r="G287">
-        <v>11500</v>
+        <v>7675</v>
       </c>
       <c r="H287">
         <v>9598.8869999999988</v>
       </c>
       <c r="I287">
-        <v>4.47</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="J287">
-        <v>19.809999999999999</v>
+        <v>20.04</v>
       </c>
       <c r="K287" s="2">
         <v>43993</v>
@@ -15226,13 +15250,13 @@
         <v>9588.4789999999994</v>
       </c>
       <c r="M287">
-        <v>-447</v>
+        <v>-3405</v>
       </c>
       <c r="N287" t="s">
         <v>18</v>
       </c>
       <c r="O287">
-        <v>-447</v>
+        <v>-3405</v>
       </c>
       <c r="P287" t="s">
         <v>19</v>
@@ -15240,99 +15264,87 @@
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C288" s="2">
-        <v>44013</v>
+        <v>43993</v>
       </c>
       <c r="D288" s="2">
-        <v>44064</v>
+        <v>44029</v>
       </c>
       <c r="E288" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F288" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G288">
-        <v>11300</v>
-      </c>
-      <c r="H288">
-        <v>10279.248</v>
+        <v>8650</v>
       </c>
       <c r="I288">
-        <v>40.1</v>
-      </c>
-      <c r="J288">
-        <v>9.93</v>
+        <v>98.2</v>
       </c>
       <c r="K288" s="2">
-        <v>44064</v>
+        <v>43993</v>
       </c>
       <c r="L288">
-        <v>11555.164000000001</v>
+        <v>9588.4789999999994</v>
       </c>
       <c r="M288">
-        <v>4010</v>
+        <v>-9820</v>
       </c>
       <c r="N288" t="s">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="O288">
-        <v>-21506.399999999889</v>
+        <v>-9820</v>
       </c>
       <c r="P288" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B289" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C289" s="2">
-        <v>44013</v>
+        <v>43993</v>
       </c>
       <c r="D289" s="2">
-        <v>44064</v>
+        <v>44029</v>
       </c>
       <c r="E289" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F289" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G289">
-        <v>8225</v>
-      </c>
-      <c r="H289">
-        <v>10279.248</v>
+        <v>11500</v>
       </c>
       <c r="I289">
-        <v>52.15</v>
-      </c>
-      <c r="J289">
-        <v>19.98</v>
+        <v>5.8</v>
       </c>
       <c r="K289" s="2">
-        <v>44064</v>
+        <v>43993</v>
       </c>
       <c r="L289">
-        <v>11555.164000000001</v>
+        <v>9588.4789999999994</v>
       </c>
       <c r="M289">
-        <v>-5215</v>
+        <v>580</v>
       </c>
       <c r="N289" t="s">
         <v>18</v>
       </c>
       <c r="O289">
-        <v>-5215</v>
+        <v>580</v>
       </c>
       <c r="P289" t="s">
         <v>19</v>
@@ -15340,49 +15352,49 @@
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B290" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="C290" s="2">
-        <v>44046</v>
+        <v>43983</v>
       </c>
       <c r="D290" s="2">
-        <v>44092</v>
+        <v>44029</v>
       </c>
       <c r="E290" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F290" t="s">
         <v>17</v>
       </c>
       <c r="G290">
-        <v>12150</v>
+        <v>8650</v>
       </c>
       <c r="H290">
-        <v>11055.075999999999</v>
+        <v>9598.8869999999988</v>
       </c>
       <c r="I290">
-        <v>38.15</v>
+        <v>111.75</v>
       </c>
       <c r="J290">
-        <v>9.9</v>
+        <v>9.89</v>
       </c>
       <c r="K290" s="2">
-        <v>44092</v>
+        <v>43993</v>
       </c>
       <c r="L290">
-        <v>10936.982</v>
+        <v>9588.4789999999994</v>
       </c>
       <c r="M290">
-        <v>3815</v>
+        <v>11175</v>
       </c>
       <c r="N290" t="s">
         <v>18</v>
       </c>
       <c r="O290">
-        <v>3815</v>
+        <v>11175</v>
       </c>
       <c r="P290" t="s">
         <v>19</v>
@@ -15390,49 +15402,49 @@
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B291" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C291" s="2">
-        <v>44046</v>
+        <v>43983</v>
       </c>
       <c r="D291" s="2">
-        <v>44092</v>
+        <v>44029</v>
       </c>
       <c r="E291" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F291" t="s">
         <v>22</v>
       </c>
       <c r="G291">
-        <v>8850</v>
+        <v>11500</v>
       </c>
       <c r="H291">
-        <v>11055.075999999999</v>
+        <v>9598.8869999999988</v>
       </c>
       <c r="I291">
-        <v>42.55</v>
+        <v>4.47</v>
       </c>
       <c r="J291">
-        <v>19.95</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="K291" s="2">
-        <v>44092</v>
+        <v>43993</v>
       </c>
       <c r="L291">
-        <v>10936.982</v>
+        <v>9588.4789999999994</v>
       </c>
       <c r="M291">
-        <v>-4255</v>
+        <v>-447</v>
       </c>
       <c r="N291" t="s">
         <v>18</v>
       </c>
       <c r="O291">
-        <v>-4255</v>
+        <v>-447</v>
       </c>
       <c r="P291" t="s">
         <v>19</v>
@@ -15440,99 +15452,99 @@
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B292" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="C292" s="2">
-        <v>44046</v>
+        <v>44013</v>
       </c>
       <c r="D292" s="2">
-        <v>44092</v>
+        <v>44064</v>
       </c>
       <c r="E292" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F292" t="s">
         <v>17</v>
       </c>
       <c r="G292">
-        <v>9950</v>
+        <v>11300</v>
       </c>
       <c r="H292">
-        <v>11055.075999999999</v>
+        <v>10279.248</v>
       </c>
       <c r="I292">
-        <v>131.55000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="J292">
-        <v>10</v>
+        <v>9.93</v>
       </c>
       <c r="K292" s="2">
-        <v>44092</v>
+        <v>44064</v>
       </c>
       <c r="L292">
-        <v>10936.982</v>
+        <v>11555.164000000001</v>
       </c>
       <c r="M292">
-        <v>13155</v>
+        <v>4010</v>
       </c>
       <c r="N292" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="O292">
-        <v>13155</v>
+        <v>-21506.399999999889</v>
       </c>
       <c r="P292" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B293" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C293" s="2">
-        <v>44046</v>
+        <v>44013</v>
       </c>
       <c r="D293" s="2">
-        <v>44092</v>
+        <v>44064</v>
       </c>
       <c r="E293" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F293" t="s">
         <v>22</v>
       </c>
       <c r="G293">
-        <v>13000</v>
+        <v>8225</v>
       </c>
       <c r="H293">
-        <v>11055.075999999999</v>
+        <v>10279.248</v>
       </c>
       <c r="I293">
-        <v>4.3</v>
+        <v>52.15</v>
       </c>
       <c r="J293">
-        <v>17.59</v>
+        <v>19.98</v>
       </c>
       <c r="K293" s="2">
-        <v>44092</v>
+        <v>44064</v>
       </c>
       <c r="L293">
-        <v>10936.982</v>
+        <v>11555.164000000001</v>
       </c>
       <c r="M293">
-        <v>-430</v>
+        <v>-5215</v>
       </c>
       <c r="N293" t="s">
         <v>18</v>
       </c>
       <c r="O293">
-        <v>-430</v>
+        <v>-5215</v>
       </c>
       <c r="P293" t="s">
         <v>19</v>
@@ -15540,16 +15552,16 @@
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C294" s="2">
-        <v>44075</v>
+        <v>44046</v>
       </c>
       <c r="D294" s="2">
-        <v>44120</v>
+        <v>44092</v>
       </c>
       <c r="E294" t="s">
         <v>16</v>
@@ -15558,31 +15570,31 @@
         <v>17</v>
       </c>
       <c r="G294">
-        <v>13500</v>
+        <v>12150</v>
       </c>
       <c r="H294">
-        <v>12292.862999999999</v>
+        <v>11055.075999999999</v>
       </c>
       <c r="I294">
-        <v>111.5</v>
+        <v>38.15</v>
       </c>
       <c r="J294">
-        <v>9.82</v>
+        <v>9.9</v>
       </c>
       <c r="K294" s="2">
-        <v>44120</v>
+        <v>44092</v>
       </c>
       <c r="L294">
-        <v>11852.168</v>
+        <v>10936.982</v>
       </c>
       <c r="M294">
-        <v>11150</v>
+        <v>3815</v>
       </c>
       <c r="N294" t="s">
         <v>18</v>
       </c>
       <c r="O294">
-        <v>11150</v>
+        <v>3815</v>
       </c>
       <c r="P294" t="s">
         <v>19</v>
@@ -15590,16 +15602,16 @@
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B295" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C295" s="2">
-        <v>44075</v>
+        <v>44046</v>
       </c>
       <c r="D295" s="2">
-        <v>44120</v>
+        <v>44092</v>
       </c>
       <c r="E295" t="s">
         <v>21</v>
@@ -15608,31 +15620,31 @@
         <v>22</v>
       </c>
       <c r="G295">
-        <v>9825</v>
+        <v>8850</v>
       </c>
       <c r="H295">
-        <v>12292.862999999999</v>
+        <v>11055.075999999999</v>
       </c>
       <c r="I295">
-        <v>63.7</v>
+        <v>42.55</v>
       </c>
       <c r="J295">
-        <v>20.079999999999998</v>
+        <v>19.95</v>
       </c>
       <c r="K295" s="2">
-        <v>44120</v>
+        <v>44092</v>
       </c>
       <c r="L295">
-        <v>11852.168</v>
+        <v>10936.982</v>
       </c>
       <c r="M295">
-        <v>-6370</v>
+        <v>-4255</v>
       </c>
       <c r="N295" t="s">
         <v>18</v>
       </c>
       <c r="O295">
-        <v>-6370</v>
+        <v>-4255</v>
       </c>
       <c r="P295" t="s">
         <v>19</v>
@@ -15640,49 +15652,49 @@
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B296" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C296" s="2">
-        <v>44105</v>
+        <v>44046</v>
       </c>
       <c r="D296" s="2">
-        <v>44155</v>
+        <v>44092</v>
       </c>
       <c r="E296" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F296" t="s">
         <v>17</v>
       </c>
       <c r="G296">
-        <v>12750</v>
+        <v>9950</v>
       </c>
       <c r="H296">
-        <v>11583.203</v>
+        <v>11055.075999999999</v>
       </c>
       <c r="I296">
-        <v>96.8</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="J296">
-        <v>10.07</v>
+        <v>10</v>
       </c>
       <c r="K296" s="2">
-        <v>44155</v>
+        <v>44092</v>
       </c>
       <c r="L296">
-        <v>11906.441000000001</v>
+        <v>10936.982</v>
       </c>
       <c r="M296">
-        <v>9680</v>
+        <v>13155</v>
       </c>
       <c r="N296" t="s">
         <v>18</v>
       </c>
       <c r="O296">
-        <v>9680</v>
+        <v>13155</v>
       </c>
       <c r="P296" t="s">
         <v>19</v>
@@ -15690,49 +15702,49 @@
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C297" s="2">
-        <v>44105</v>
+        <v>44046</v>
       </c>
       <c r="D297" s="2">
-        <v>44155</v>
+        <v>44092</v>
       </c>
       <c r="E297" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F297" t="s">
         <v>22</v>
       </c>
       <c r="G297">
-        <v>9275</v>
+        <v>13000</v>
       </c>
       <c r="H297">
-        <v>11583.203</v>
+        <v>11055.075999999999</v>
       </c>
       <c r="I297">
-        <v>69.95</v>
+        <v>4.3</v>
       </c>
       <c r="J297">
-        <v>19.93</v>
+        <v>17.59</v>
       </c>
       <c r="K297" s="2">
-        <v>44155</v>
+        <v>44092</v>
       </c>
       <c r="L297">
-        <v>11906.441000000001</v>
+        <v>10936.982</v>
       </c>
       <c r="M297">
-        <v>-6995</v>
+        <v>-430</v>
       </c>
       <c r="N297" t="s">
         <v>18</v>
       </c>
       <c r="O297">
-        <v>-6995</v>
+        <v>-430</v>
       </c>
       <c r="P297" t="s">
         <v>19</v>
@@ -15740,49 +15752,49 @@
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B298" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C298" s="2">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="D298" s="2">
-        <v>44155</v>
+        <v>44120</v>
       </c>
       <c r="E298" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F298" t="s">
         <v>17</v>
       </c>
       <c r="G298">
-        <v>10425</v>
+        <v>13500</v>
       </c>
       <c r="H298">
-        <v>11583.203</v>
+        <v>12292.862999999999</v>
       </c>
       <c r="I298">
-        <v>221.65</v>
+        <v>111.5</v>
       </c>
       <c r="J298">
-        <v>10</v>
+        <v>9.82</v>
       </c>
       <c r="K298" s="2">
-        <v>44155</v>
+        <v>44120</v>
       </c>
       <c r="L298">
-        <v>11906.441000000001</v>
+        <v>11852.168</v>
       </c>
       <c r="M298">
-        <v>22165</v>
+        <v>11150</v>
       </c>
       <c r="N298" t="s">
         <v>18</v>
       </c>
       <c r="O298">
-        <v>22165</v>
+        <v>11150</v>
       </c>
       <c r="P298" t="s">
         <v>19</v>
@@ -15790,49 +15802,49 @@
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B299" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C299" s="2">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="D299" s="2">
-        <v>44155</v>
+        <v>44120</v>
       </c>
       <c r="E299" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F299" t="s">
         <v>22</v>
       </c>
       <c r="G299">
-        <v>13900</v>
+        <v>9825</v>
       </c>
       <c r="H299">
-        <v>11583.203</v>
+        <v>12292.862999999999</v>
       </c>
       <c r="I299">
-        <v>17.8</v>
+        <v>63.7</v>
       </c>
       <c r="J299">
-        <v>20</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="K299" s="2">
-        <v>44155</v>
+        <v>44120</v>
       </c>
       <c r="L299">
-        <v>11906.441000000001</v>
+        <v>11852.168</v>
       </c>
       <c r="M299">
-        <v>-1780</v>
+        <v>-6370</v>
       </c>
       <c r="N299" t="s">
         <v>18</v>
       </c>
       <c r="O299">
-        <v>-1780</v>
+        <v>-6370</v>
       </c>
       <c r="P299" t="s">
         <v>19</v>
@@ -15840,16 +15852,16 @@
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B300" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C300" s="2">
-        <v>44137</v>
+        <v>44105</v>
       </c>
       <c r="D300" s="2">
-        <v>44183</v>
+        <v>44155</v>
       </c>
       <c r="E300" t="s">
         <v>16</v>
@@ -15858,48 +15870,48 @@
         <v>17</v>
       </c>
       <c r="G300">
-        <v>12200</v>
+        <v>12750</v>
       </c>
       <c r="H300">
-        <v>11084.757</v>
+        <v>11583.203</v>
       </c>
       <c r="I300">
-        <v>105.67</v>
+        <v>96.8</v>
       </c>
       <c r="J300">
-        <v>10.06</v>
+        <v>10.07</v>
       </c>
       <c r="K300" s="2">
-        <v>44183</v>
+        <v>44155</v>
       </c>
       <c r="L300">
-        <v>12738.181</v>
+        <v>11906.441000000001</v>
       </c>
       <c r="M300">
-        <v>10567</v>
+        <v>9680</v>
       </c>
       <c r="N300" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="O300">
-        <v>-43251.100000000049</v>
+        <v>9680</v>
       </c>
       <c r="P300" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B301" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C301" s="2">
-        <v>44137</v>
+        <v>44105</v>
       </c>
       <c r="D301" s="2">
-        <v>44183</v>
+        <v>44155</v>
       </c>
       <c r="E301" t="s">
         <v>21</v>
@@ -15908,31 +15920,31 @@
         <v>22</v>
       </c>
       <c r="G301">
-        <v>8875</v>
+        <v>9275</v>
       </c>
       <c r="H301">
-        <v>11084.757</v>
+        <v>11583.203</v>
       </c>
       <c r="I301">
-        <v>74.95</v>
+        <v>69.95</v>
       </c>
       <c r="J301">
-        <v>19.940000000000001</v>
+        <v>19.93</v>
       </c>
       <c r="K301" s="2">
-        <v>44183</v>
+        <v>44155</v>
       </c>
       <c r="L301">
-        <v>12738.181</v>
+        <v>11906.441000000001</v>
       </c>
       <c r="M301">
-        <v>-7495</v>
+        <v>-6995</v>
       </c>
       <c r="N301" t="s">
         <v>18</v>
       </c>
       <c r="O301">
-        <v>-7495</v>
+        <v>-6995</v>
       </c>
       <c r="P301" t="s">
         <v>19</v>
@@ -15940,49 +15952,49 @@
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B302" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C302" s="2">
-        <v>44137</v>
+        <v>44105</v>
       </c>
       <c r="D302" s="2">
-        <v>44183</v>
+        <v>44155</v>
       </c>
       <c r="E302" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F302" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G302">
-        <v>13300</v>
+        <v>10425</v>
       </c>
       <c r="H302">
-        <v>11084.757</v>
+        <v>11583.203</v>
       </c>
       <c r="I302">
-        <v>13.02</v>
+        <v>221.65</v>
       </c>
       <c r="J302">
-        <v>19.98</v>
+        <v>10</v>
       </c>
       <c r="K302" s="2">
-        <v>44183</v>
+        <v>44155</v>
       </c>
       <c r="L302">
-        <v>12738.181</v>
+        <v>11906.441000000001</v>
       </c>
       <c r="M302">
-        <v>-1302</v>
+        <v>22165</v>
       </c>
       <c r="N302" t="s">
         <v>18</v>
       </c>
       <c r="O302">
-        <v>-1302</v>
+        <v>22165</v>
       </c>
       <c r="P302" t="s">
         <v>19</v>
@@ -15990,49 +16002,49 @@
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
+        <v>7</v>
+      </c>
+      <c r="B303" t="s">
+        <v>261</v>
+      </c>
+      <c r="C303" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D303" s="2">
+        <v>44155</v>
+      </c>
+      <c r="E303" t="s">
+        <v>16</v>
+      </c>
+      <c r="F303" t="s">
+        <v>22</v>
+      </c>
+      <c r="G303">
+        <v>13900</v>
+      </c>
+      <c r="H303">
+        <v>11583.203</v>
+      </c>
+      <c r="I303">
+        <v>17.8</v>
+      </c>
+      <c r="J303">
         <v>20</v>
       </c>
-      <c r="B303" t="s">
-        <v>263</v>
-      </c>
-      <c r="C303" s="2">
-        <v>44137</v>
-      </c>
-      <c r="D303" s="2">
-        <v>44183</v>
-      </c>
-      <c r="E303" t="s">
-        <v>21</v>
-      </c>
-      <c r="F303" t="s">
-        <v>17</v>
-      </c>
-      <c r="G303">
-        <v>9975</v>
-      </c>
-      <c r="H303">
-        <v>11084.757</v>
-      </c>
-      <c r="I303">
-        <v>222.8</v>
-      </c>
-      <c r="J303">
-        <v>10.01</v>
-      </c>
       <c r="K303" s="2">
-        <v>44183</v>
+        <v>44155</v>
       </c>
       <c r="L303">
-        <v>12738.181</v>
+        <v>11906.441000000001</v>
       </c>
       <c r="M303">
-        <v>22280</v>
+        <v>-1780</v>
       </c>
       <c r="N303" t="s">
         <v>18</v>
       </c>
       <c r="O303">
-        <v>22280</v>
+        <v>-1780</v>
       </c>
       <c r="P303" t="s">
         <v>19</v>
@@ -16040,16 +16052,16 @@
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B304" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C304" s="2">
-        <v>44166</v>
+        <v>44137</v>
       </c>
       <c r="D304" s="2">
-        <v>44211</v>
+        <v>44183</v>
       </c>
       <c r="E304" t="s">
         <v>16</v>
@@ -16058,48 +16070,48 @@
         <v>17</v>
       </c>
       <c r="G304">
-        <v>13700</v>
+        <v>12200</v>
       </c>
       <c r="H304">
-        <v>12455.325999999999</v>
+        <v>11084.757</v>
       </c>
       <c r="I304">
-        <v>54</v>
+        <v>105.67</v>
       </c>
       <c r="J304">
-        <v>9.99</v>
+        <v>10.06</v>
       </c>
       <c r="K304" s="2">
-        <v>44211</v>
+        <v>44183</v>
       </c>
       <c r="L304">
-        <v>12803.933000000001</v>
+        <v>12738.181</v>
       </c>
       <c r="M304">
-        <v>5400</v>
+        <v>10567</v>
       </c>
       <c r="N304" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="O304">
-        <v>5400</v>
+        <v>-43251.100000000049</v>
       </c>
       <c r="P304" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B305" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C305" s="2">
-        <v>44166</v>
+        <v>44137</v>
       </c>
       <c r="D305" s="2">
-        <v>44211</v>
+        <v>44183</v>
       </c>
       <c r="E305" t="s">
         <v>21</v>
@@ -16108,31 +16120,31 @@
         <v>22</v>
       </c>
       <c r="G305">
-        <v>9975</v>
+        <v>8875</v>
       </c>
       <c r="H305">
-        <v>12455.325999999999</v>
+        <v>11084.757</v>
       </c>
       <c r="I305">
-        <v>31.9</v>
+        <v>74.95</v>
       </c>
       <c r="J305">
-        <v>19.91</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="K305" s="2">
-        <v>44211</v>
+        <v>44183</v>
       </c>
       <c r="L305">
-        <v>12803.933000000001</v>
+        <v>12738.181</v>
       </c>
       <c r="M305">
-        <v>-3190</v>
+        <v>-7495</v>
       </c>
       <c r="N305" t="s">
         <v>18</v>
       </c>
       <c r="O305">
-        <v>-3190</v>
+        <v>-7495</v>
       </c>
       <c r="P305" t="s">
         <v>19</v>
@@ -16140,16 +16152,16 @@
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B306" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C306" s="2">
-        <v>44166</v>
+        <v>44137</v>
       </c>
       <c r="D306" s="2">
-        <v>44211</v>
+        <v>44183</v>
       </c>
       <c r="E306" t="s">
         <v>16</v>
@@ -16158,31 +16170,31 @@
         <v>22</v>
       </c>
       <c r="G306">
-        <v>14900</v>
+        <v>13300</v>
       </c>
       <c r="H306">
-        <v>12455.325999999999</v>
+        <v>11084.757</v>
       </c>
       <c r="I306">
-        <v>9.4</v>
+        <v>13.02</v>
       </c>
       <c r="J306">
-        <v>19.63</v>
+        <v>19.98</v>
       </c>
       <c r="K306" s="2">
-        <v>44211</v>
+        <v>44183</v>
       </c>
       <c r="L306">
-        <v>12803.933000000001</v>
+        <v>12738.181</v>
       </c>
       <c r="M306">
-        <v>-940</v>
+        <v>-1302</v>
       </c>
       <c r="N306" t="s">
         <v>18</v>
       </c>
       <c r="O306">
-        <v>-940</v>
+        <v>-1302</v>
       </c>
       <c r="P306" t="s">
         <v>19</v>
@@ -16190,16 +16202,16 @@
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B307" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="C307" s="2">
-        <v>44166</v>
+        <v>44137</v>
       </c>
       <c r="D307" s="2">
-        <v>44211</v>
+        <v>44183</v>
       </c>
       <c r="E307" t="s">
         <v>21</v>
@@ -16208,31 +16220,31 @@
         <v>17</v>
       </c>
       <c r="G307">
-        <v>11200</v>
+        <v>9975</v>
       </c>
       <c r="H307">
-        <v>12455.325999999999</v>
+        <v>11084.757</v>
       </c>
       <c r="I307">
-        <v>104</v>
+        <v>222.8</v>
       </c>
       <c r="J307">
-        <v>10.08</v>
+        <v>10.01</v>
       </c>
       <c r="K307" s="2">
-        <v>44211</v>
+        <v>44183</v>
       </c>
       <c r="L307">
-        <v>12803.933000000001</v>
+        <v>12738.181</v>
       </c>
       <c r="M307">
-        <v>10400</v>
+        <v>22280</v>
       </c>
       <c r="N307" t="s">
         <v>18</v>
       </c>
       <c r="O307">
-        <v>10400</v>
+        <v>22280</v>
       </c>
       <c r="P307" t="s">
         <v>19</v>
@@ -16240,16 +16252,16 @@
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B308" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C308" s="2">
-        <v>44200</v>
+        <v>44166</v>
       </c>
       <c r="D308" s="2">
-        <v>44246</v>
+        <v>44211</v>
       </c>
       <c r="E308" t="s">
         <v>16</v>
@@ -16258,31 +16270,31 @@
         <v>17</v>
       </c>
       <c r="G308">
-        <v>13975</v>
+        <v>13700</v>
       </c>
       <c r="H308">
-        <v>12694.665000000001</v>
+        <v>12455.325999999999</v>
       </c>
       <c r="I308">
-        <v>37.340000000000003</v>
+        <v>54</v>
       </c>
       <c r="J308">
-        <v>10.09</v>
+        <v>9.99</v>
       </c>
       <c r="K308" s="2">
-        <v>44223</v>
+        <v>44211</v>
       </c>
       <c r="L308">
-        <v>13112.65</v>
+        <v>12803.933000000001</v>
       </c>
       <c r="M308">
-        <v>3734</v>
+        <v>5400</v>
       </c>
       <c r="N308" t="s">
         <v>18</v>
       </c>
       <c r="O308">
-        <v>3734</v>
+        <v>5400</v>
       </c>
       <c r="P308" t="s">
         <v>19</v>
@@ -16290,16 +16302,16 @@
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B309" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C309" s="2">
-        <v>44200</v>
+        <v>44166</v>
       </c>
       <c r="D309" s="2">
-        <v>44246</v>
+        <v>44211</v>
       </c>
       <c r="E309" t="s">
         <v>21</v>
@@ -16308,31 +16320,31 @@
         <v>22</v>
       </c>
       <c r="G309">
-        <v>10150</v>
+        <v>9975</v>
       </c>
       <c r="H309">
-        <v>12694.665000000001</v>
+        <v>12455.325999999999</v>
       </c>
       <c r="I309">
-        <v>44.85</v>
+        <v>31.9</v>
       </c>
       <c r="J309">
-        <v>20.05</v>
+        <v>19.91</v>
       </c>
       <c r="K309" s="2">
-        <v>44223</v>
+        <v>44211</v>
       </c>
       <c r="L309">
-        <v>13112.65</v>
+        <v>12803.933000000001</v>
       </c>
       <c r="M309">
-        <v>-4485</v>
+        <v>-3190</v>
       </c>
       <c r="N309" t="s">
         <v>18</v>
       </c>
       <c r="O309">
-        <v>-4485</v>
+        <v>-3190</v>
       </c>
       <c r="P309" t="s">
         <v>19</v>
@@ -16340,43 +16352,49 @@
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B310" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="C310" s="2">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="D310" s="2">
-        <v>44246</v>
+        <v>44211</v>
       </c>
       <c r="E310" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F310" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G310">
-        <v>10150</v>
+        <v>14900</v>
+      </c>
+      <c r="H310">
+        <v>12455.325999999999</v>
       </c>
       <c r="I310">
-        <v>34</v>
+        <v>9.4</v>
+      </c>
+      <c r="J310">
+        <v>19.63</v>
       </c>
       <c r="K310" s="2">
-        <v>44223</v>
+        <v>44211</v>
       </c>
       <c r="L310">
-        <v>13112.65</v>
+        <v>12803.933000000001</v>
       </c>
       <c r="M310">
-        <v>3400</v>
+        <v>-940</v>
       </c>
       <c r="N310" t="s">
         <v>18</v>
       </c>
       <c r="O310">
-        <v>3400</v>
+        <v>-940</v>
       </c>
       <c r="P310" t="s">
         <v>19</v>
@@ -16384,43 +16402,49 @@
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B311" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="C311" s="2">
-        <v>44223</v>
+        <v>44166</v>
       </c>
       <c r="D311" s="2">
-        <v>44246</v>
+        <v>44211</v>
       </c>
       <c r="E311" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F311" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G311">
-        <v>13975</v>
+        <v>11200</v>
+      </c>
+      <c r="H311">
+        <v>12455.325999999999</v>
       </c>
       <c r="I311">
-        <v>74.05</v>
+        <v>104</v>
+      </c>
+      <c r="J311">
+        <v>10.08</v>
       </c>
       <c r="K311" s="2">
-        <v>44223</v>
+        <v>44211</v>
       </c>
       <c r="L311">
-        <v>13112.65</v>
+        <v>12803.933000000001</v>
       </c>
       <c r="M311">
-        <v>-7405</v>
+        <v>10400</v>
       </c>
       <c r="N311" t="s">
         <v>18</v>
       </c>
       <c r="O311">
-        <v>-7405</v>
+        <v>10400</v>
       </c>
       <c r="P311" t="s">
         <v>19</v>
@@ -16431,7 +16455,7 @@
         <v>2</v>
       </c>
       <c r="B312" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C312" s="2">
         <v>44200</v>
@@ -16443,19 +16467,19 @@
         <v>16</v>
       </c>
       <c r="F312" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G312">
-        <v>15200</v>
+        <v>13975</v>
       </c>
       <c r="H312">
         <v>12694.665000000001</v>
       </c>
       <c r="I312">
-        <v>3.42</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="J312">
-        <v>19.739999999999998</v>
+        <v>10.09</v>
       </c>
       <c r="K312" s="2">
         <v>44223</v>
@@ -16464,13 +16488,13 @@
         <v>13112.65</v>
       </c>
       <c r="M312">
-        <v>-342</v>
+        <v>3734</v>
       </c>
       <c r="N312" t="s">
         <v>18</v>
       </c>
       <c r="O312">
-        <v>-342</v>
+        <v>3734</v>
       </c>
       <c r="P312" t="s">
         <v>19</v>
@@ -16481,7 +16505,7 @@
         <v>12</v>
       </c>
       <c r="B313" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C313" s="2">
         <v>44200</v>
@@ -16493,19 +16517,19 @@
         <v>21</v>
       </c>
       <c r="F313" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G313">
-        <v>11425</v>
+        <v>10150</v>
       </c>
       <c r="H313">
         <v>12694.665000000001</v>
       </c>
       <c r="I313">
-        <v>155.85</v>
+        <v>44.85</v>
       </c>
       <c r="J313">
-        <v>10</v>
+        <v>20.05</v>
       </c>
       <c r="K313" s="2">
         <v>44223</v>
@@ -16514,13 +16538,13 @@
         <v>13112.65</v>
       </c>
       <c r="M313">
-        <v>15585</v>
+        <v>-4485</v>
       </c>
       <c r="N313" t="s">
         <v>18</v>
       </c>
       <c r="O313">
-        <v>15585</v>
+        <v>-4485</v>
       </c>
       <c r="P313" t="s">
         <v>19</v>
@@ -16531,7 +16555,7 @@
         <v>2</v>
       </c>
       <c r="B314" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C314" s="2">
         <v>44223</v>
@@ -16543,13 +16567,13 @@
         <v>21</v>
       </c>
       <c r="F314" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G314">
-        <v>11425</v>
+        <v>10150</v>
       </c>
       <c r="I314">
-        <v>109.8</v>
+        <v>34</v>
       </c>
       <c r="K314" s="2">
         <v>44223</v>
@@ -16558,13 +16582,13 @@
         <v>13112.65</v>
       </c>
       <c r="M314">
-        <v>-10980</v>
+        <v>3400</v>
       </c>
       <c r="N314" t="s">
         <v>18</v>
       </c>
       <c r="O314">
-        <v>-10980</v>
+        <v>3400</v>
       </c>
       <c r="P314" t="s">
         <v>19</v>
@@ -16575,7 +16599,7 @@
         <v>1</v>
       </c>
       <c r="B315" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C315" s="2">
         <v>44223</v>
@@ -16587,13 +16611,13 @@
         <v>16</v>
       </c>
       <c r="F315" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G315">
-        <v>15200</v>
+        <v>13975</v>
       </c>
       <c r="I315">
-        <v>8.67</v>
+        <v>74.05</v>
       </c>
       <c r="K315" s="2">
         <v>44223</v>
@@ -16602,13 +16626,13 @@
         <v>13112.65</v>
       </c>
       <c r="M315">
-        <v>867</v>
+        <v>-7405</v>
       </c>
       <c r="N315" t="s">
         <v>18</v>
       </c>
       <c r="O315">
-        <v>867</v>
+        <v>-7405</v>
       </c>
       <c r="P315" t="s">
         <v>19</v>
@@ -16616,49 +16640,49 @@
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B316" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="C316" s="2">
-        <v>44228</v>
+        <v>44200</v>
       </c>
       <c r="D316" s="2">
-        <v>44274</v>
+        <v>44246</v>
       </c>
       <c r="E316" t="s">
         <v>16</v>
       </c>
       <c r="F316" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G316">
-        <v>14575</v>
+        <v>15200</v>
       </c>
       <c r="H316">
-        <v>13248.9</v>
+        <v>12694.665000000001</v>
       </c>
       <c r="I316">
-        <v>59.7</v>
+        <v>3.42</v>
       </c>
       <c r="J316">
-        <v>10.01</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="K316" s="2">
-        <v>44274</v>
+        <v>44223</v>
       </c>
       <c r="L316">
-        <v>12866.989</v>
+        <v>13112.65</v>
       </c>
       <c r="M316">
-        <v>5970</v>
+        <v>-342</v>
       </c>
       <c r="N316" t="s">
         <v>18</v>
       </c>
       <c r="O316">
-        <v>5970</v>
+        <v>-342</v>
       </c>
       <c r="P316" t="s">
         <v>19</v>
@@ -16666,49 +16690,49 @@
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B317" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C317" s="2">
-        <v>44228</v>
+        <v>44200</v>
       </c>
       <c r="D317" s="2">
-        <v>44274</v>
+        <v>44246</v>
       </c>
       <c r="E317" t="s">
         <v>21</v>
       </c>
       <c r="F317" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G317">
-        <v>10600</v>
+        <v>11425</v>
       </c>
       <c r="H317">
-        <v>13248.9</v>
+        <v>12694.665000000001</v>
       </c>
       <c r="I317">
-        <v>102.7</v>
+        <v>155.85</v>
       </c>
       <c r="J317">
-        <v>19.989999999999998</v>
+        <v>10</v>
       </c>
       <c r="K317" s="2">
-        <v>44274</v>
+        <v>44223</v>
       </c>
       <c r="L317">
-        <v>12866.989</v>
+        <v>13112.65</v>
       </c>
       <c r="M317">
-        <v>-10270</v>
+        <v>15585</v>
       </c>
       <c r="N317" t="s">
         <v>18</v>
       </c>
       <c r="O317">
-        <v>-10270</v>
+        <v>15585</v>
       </c>
       <c r="P317" t="s">
         <v>19</v>
@@ -16716,49 +16740,43 @@
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B318" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C318" s="2">
-        <v>44228</v>
+        <v>44223</v>
       </c>
       <c r="D318" s="2">
-        <v>44274</v>
+        <v>44246</v>
       </c>
       <c r="E318" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F318" t="s">
         <v>22</v>
       </c>
       <c r="G318">
-        <v>15900</v>
-      </c>
-      <c r="H318">
-        <v>13248.9</v>
+        <v>11425</v>
       </c>
       <c r="I318">
-        <v>6.2</v>
-      </c>
-      <c r="J318">
-        <v>20.010000000000002</v>
+        <v>109.8</v>
       </c>
       <c r="K318" s="2">
-        <v>44274</v>
+        <v>44223</v>
       </c>
       <c r="L318">
-        <v>12866.989</v>
+        <v>13112.65</v>
       </c>
       <c r="M318">
-        <v>-620</v>
+        <v>-10980</v>
       </c>
       <c r="N318" t="s">
         <v>18</v>
       </c>
       <c r="O318">
-        <v>-620</v>
+        <v>-10980</v>
       </c>
       <c r="P318" t="s">
         <v>19</v>
@@ -16766,49 +16784,43 @@
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B319" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C319" s="2">
-        <v>44228</v>
+        <v>44223</v>
       </c>
       <c r="D319" s="2">
-        <v>44274</v>
+        <v>44246</v>
       </c>
       <c r="E319" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F319" t="s">
         <v>17</v>
       </c>
       <c r="G319">
-        <v>11925</v>
-      </c>
-      <c r="H319">
-        <v>13248.9</v>
+        <v>15200</v>
       </c>
       <c r="I319">
-        <v>217.7</v>
-      </c>
-      <c r="J319">
-        <v>9.99</v>
+        <v>8.67</v>
       </c>
       <c r="K319" s="2">
-        <v>44274</v>
+        <v>44223</v>
       </c>
       <c r="L319">
-        <v>12866.989</v>
+        <v>13112.65</v>
       </c>
       <c r="M319">
-        <v>21770</v>
+        <v>867</v>
       </c>
       <c r="N319" t="s">
         <v>18</v>
       </c>
       <c r="O319">
-        <v>21770</v>
+        <v>867</v>
       </c>
       <c r="P319" t="s">
         <v>19</v>
@@ -16816,16 +16828,16 @@
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B320" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C320" s="2">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="D320" s="2">
-        <v>44302</v>
+        <v>44274</v>
       </c>
       <c r="E320" t="s">
         <v>16</v>
@@ -16834,31 +16846,31 @@
         <v>17</v>
       </c>
       <c r="G320">
-        <v>14600</v>
+        <v>14575</v>
       </c>
       <c r="H320">
-        <v>13282.953</v>
+        <v>13248.9</v>
       </c>
       <c r="I320">
-        <v>43.35</v>
+        <v>59.7</v>
       </c>
       <c r="J320">
-        <v>9.92</v>
+        <v>10.01</v>
       </c>
       <c r="K320" s="2">
-        <v>44302</v>
+        <v>44274</v>
       </c>
       <c r="L320">
-        <v>14041.907999999999</v>
+        <v>12866.989</v>
       </c>
       <c r="M320">
-        <v>4335</v>
+        <v>5970</v>
       </c>
       <c r="N320" t="s">
         <v>18</v>
       </c>
       <c r="O320">
-        <v>4335</v>
+        <v>5970</v>
       </c>
       <c r="P320" t="s">
         <v>19</v>
@@ -16866,16 +16878,16 @@
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B321" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C321" s="2">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="D321" s="2">
-        <v>44302</v>
+        <v>44274</v>
       </c>
       <c r="E321" t="s">
         <v>21</v>
@@ -16884,31 +16896,31 @@
         <v>22</v>
       </c>
       <c r="G321">
-        <v>10625</v>
+        <v>10600</v>
       </c>
       <c r="H321">
-        <v>13282.953</v>
+        <v>13248.9</v>
       </c>
       <c r="I321">
-        <v>48.2</v>
+        <v>102.7</v>
       </c>
       <c r="J321">
-        <v>20.010000000000002</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="K321" s="2">
-        <v>44302</v>
+        <v>44274</v>
       </c>
       <c r="L321">
-        <v>14041.907999999999</v>
+        <v>12866.989</v>
       </c>
       <c r="M321">
-        <v>-4820</v>
+        <v>-10270</v>
       </c>
       <c r="N321" t="s">
         <v>18</v>
       </c>
       <c r="O321">
-        <v>-4820</v>
+        <v>-10270</v>
       </c>
       <c r="P321" t="s">
         <v>19</v>
@@ -16916,16 +16928,16 @@
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B322" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C322" s="2">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="D322" s="2">
-        <v>44302</v>
+        <v>44274</v>
       </c>
       <c r="E322" t="s">
         <v>16</v>
@@ -16934,31 +16946,31 @@
         <v>22</v>
       </c>
       <c r="G322">
-        <v>15950</v>
+        <v>15900</v>
       </c>
       <c r="H322">
-        <v>13282.953</v>
+        <v>13248.9</v>
       </c>
       <c r="I322">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="J322">
-        <v>20.079999999999998</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="K322" s="2">
-        <v>44302</v>
+        <v>44274</v>
       </c>
       <c r="L322">
-        <v>14041.907999999999</v>
+        <v>12866.989</v>
       </c>
       <c r="M322">
-        <v>-400</v>
+        <v>-620</v>
       </c>
       <c r="N322" t="s">
         <v>18</v>
       </c>
       <c r="O322">
-        <v>-400</v>
+        <v>-620</v>
       </c>
       <c r="P322" t="s">
         <v>19</v>
@@ -16966,16 +16978,16 @@
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B323" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C323" s="2">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="D323" s="2">
-        <v>44302</v>
+        <v>44274</v>
       </c>
       <c r="E323" t="s">
         <v>21</v>
@@ -16984,31 +16996,31 @@
         <v>17</v>
       </c>
       <c r="G323">
-        <v>11950</v>
+        <v>11925</v>
       </c>
       <c r="H323">
-        <v>13282.953</v>
+        <v>13248.9</v>
       </c>
       <c r="I323">
-        <v>165.1</v>
+        <v>217.7</v>
       </c>
       <c r="J323">
-        <v>10.039999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="K323" s="2">
-        <v>44302</v>
+        <v>44274</v>
       </c>
       <c r="L323">
-        <v>14041.907999999999</v>
+        <v>12866.989</v>
       </c>
       <c r="M323">
-        <v>16510</v>
+        <v>21770</v>
       </c>
       <c r="N323" t="s">
         <v>18</v>
       </c>
       <c r="O323">
-        <v>16510</v>
+        <v>21770</v>
       </c>
       <c r="P323" t="s">
         <v>19</v>
@@ -17016,16 +17028,16 @@
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B324" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C324" s="2">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="D324" s="2">
-        <v>44337</v>
+        <v>44302</v>
       </c>
       <c r="E324" t="s">
         <v>16</v>
@@ -17034,31 +17046,31 @@
         <v>17</v>
       </c>
       <c r="G324">
-        <v>14650</v>
+        <v>14600</v>
       </c>
       <c r="H324">
-        <v>13329.514999999999</v>
+        <v>13282.953</v>
       </c>
       <c r="I324">
-        <v>32.700000000000003</v>
+        <v>43.35</v>
       </c>
       <c r="J324">
-        <v>9.91</v>
+        <v>9.92</v>
       </c>
       <c r="K324" s="2">
-        <v>44328</v>
+        <v>44302</v>
       </c>
       <c r="L324">
-        <v>13001.634</v>
+        <v>14041.907999999999</v>
       </c>
       <c r="M324">
-        <v>3270</v>
+        <v>4335</v>
       </c>
       <c r="N324" t="s">
         <v>18</v>
       </c>
       <c r="O324">
-        <v>3270</v>
+        <v>4335</v>
       </c>
       <c r="P324" t="s">
         <v>19</v>
@@ -17066,16 +17078,16 @@
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B325" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C325" s="2">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="D325" s="2">
-        <v>44337</v>
+        <v>44302</v>
       </c>
       <c r="E325" t="s">
         <v>21</v>
@@ -17084,31 +17096,31 @@
         <v>22</v>
       </c>
       <c r="G325">
-        <v>10675</v>
+        <v>10625</v>
       </c>
       <c r="H325">
-        <v>13329.514999999999</v>
+        <v>13282.953</v>
       </c>
       <c r="I325">
-        <v>25.2</v>
+        <v>48.2</v>
       </c>
       <c r="J325">
-        <v>19.91</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="K325" s="2">
-        <v>44328</v>
+        <v>44302</v>
       </c>
       <c r="L325">
-        <v>13001.634</v>
+        <v>14041.907999999999</v>
       </c>
       <c r="M325">
-        <v>-2520</v>
+        <v>-4820</v>
       </c>
       <c r="N325" t="s">
         <v>18</v>
       </c>
       <c r="O325">
-        <v>-2520</v>
+        <v>-4820</v>
       </c>
       <c r="P325" t="s">
         <v>19</v>
@@ -17119,40 +17131,46 @@
         <v>4</v>
       </c>
       <c r="B326" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C326" s="2">
-        <v>44328</v>
+        <v>44256</v>
       </c>
       <c r="D326" s="2">
-        <v>44337</v>
+        <v>44302</v>
       </c>
       <c r="E326" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F326" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G326">
-        <v>10675</v>
+        <v>15950</v>
+      </c>
+      <c r="H326">
+        <v>13282.953</v>
       </c>
       <c r="I326">
-        <v>5.35</v>
+        <v>4</v>
+      </c>
+      <c r="J326">
+        <v>20.079999999999998</v>
       </c>
       <c r="K326" s="2">
-        <v>44328</v>
+        <v>44302</v>
       </c>
       <c r="L326">
-        <v>13001.634</v>
+        <v>14041.907999999999</v>
       </c>
       <c r="M326">
-        <v>535</v>
+        <v>-400</v>
       </c>
       <c r="N326" t="s">
         <v>18</v>
       </c>
       <c r="O326">
-        <v>535</v>
+        <v>-400</v>
       </c>
       <c r="P326" t="s">
         <v>19</v>
@@ -17160,43 +17178,49 @@
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B327" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="C327" s="2">
-        <v>44328</v>
+        <v>44256</v>
       </c>
       <c r="D327" s="2">
-        <v>44337</v>
+        <v>44302</v>
       </c>
       <c r="E327" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F327" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G327">
-        <v>14650</v>
+        <v>11950</v>
+      </c>
+      <c r="H327">
+        <v>13282.953</v>
       </c>
       <c r="I327">
-        <v>0.9</v>
+        <v>165.1</v>
+      </c>
+      <c r="J327">
+        <v>10.039999999999999</v>
       </c>
       <c r="K327" s="2">
-        <v>44328</v>
+        <v>44302</v>
       </c>
       <c r="L327">
-        <v>13001.634</v>
+        <v>14041.907999999999</v>
       </c>
       <c r="M327">
-        <v>-90</v>
+        <v>16510</v>
       </c>
       <c r="N327" t="s">
         <v>18</v>
       </c>
       <c r="O327">
-        <v>-90</v>
+        <v>16510</v>
       </c>
       <c r="P327" t="s">
         <v>19</v>
@@ -17207,7 +17231,7 @@
         <v>5</v>
       </c>
       <c r="B328" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C328" s="2">
         <v>44287</v>
@@ -17219,19 +17243,19 @@
         <v>16</v>
       </c>
       <c r="F328" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G328">
-        <v>16000</v>
+        <v>14650</v>
       </c>
       <c r="H328">
         <v>13329.514999999999</v>
       </c>
       <c r="I328">
-        <v>3.65</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="J328">
-        <v>20.03</v>
+        <v>9.91</v>
       </c>
       <c r="K328" s="2">
         <v>44328</v>
@@ -17240,13 +17264,13 @@
         <v>13001.634</v>
       </c>
       <c r="M328">
-        <v>-365</v>
+        <v>3270</v>
       </c>
       <c r="N328" t="s">
         <v>18</v>
       </c>
       <c r="O328">
-        <v>-365</v>
+        <v>3270</v>
       </c>
       <c r="P328" t="s">
         <v>19</v>
@@ -17257,7 +17281,7 @@
         <v>15</v>
       </c>
       <c r="B329" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C329" s="2">
         <v>44287</v>
@@ -17269,19 +17293,19 @@
         <v>21</v>
       </c>
       <c r="F329" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G329">
-        <v>12000</v>
+        <v>10675</v>
       </c>
       <c r="H329">
         <v>13329.514999999999</v>
       </c>
       <c r="I329">
-        <v>99.66</v>
+        <v>25.2</v>
       </c>
       <c r="J329">
-        <v>9.9700000000000006</v>
+        <v>19.91</v>
       </c>
       <c r="K329" s="2">
         <v>44328</v>
@@ -17290,13 +17314,13 @@
         <v>13001.634</v>
       </c>
       <c r="M329">
-        <v>9966</v>
+        <v>-2520</v>
       </c>
       <c r="N329" t="s">
         <v>18</v>
       </c>
       <c r="O329">
-        <v>9966</v>
+        <v>-2520</v>
       </c>
       <c r="P329" t="s">
         <v>19</v>
@@ -17307,7 +17331,7 @@
         <v>4</v>
       </c>
       <c r="B330" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C330" s="2">
         <v>44328</v>
@@ -17319,13 +17343,13 @@
         <v>21</v>
       </c>
       <c r="F330" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G330">
-        <v>12000</v>
+        <v>10675</v>
       </c>
       <c r="I330">
-        <v>31.36</v>
+        <v>5.35</v>
       </c>
       <c r="K330" s="2">
         <v>44328</v>
@@ -17334,13 +17358,13 @@
         <v>13001.634</v>
       </c>
       <c r="M330">
-        <v>-3136</v>
+        <v>535</v>
       </c>
       <c r="N330" t="s">
         <v>18</v>
       </c>
       <c r="O330">
-        <v>-3136</v>
+        <v>535</v>
       </c>
       <c r="P330" t="s">
         <v>19</v>
@@ -17351,7 +17375,7 @@
         <v>3</v>
       </c>
       <c r="B331" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C331" s="2">
         <v>44328</v>
@@ -17363,13 +17387,13 @@
         <v>16</v>
       </c>
       <c r="F331" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G331">
-        <v>16000</v>
+        <v>14650</v>
       </c>
       <c r="I331">
-        <v>0.21</v>
+        <v>0.9</v>
       </c>
       <c r="K331" s="2">
         <v>44328</v>
@@ -17378,13 +17402,13 @@
         <v>13001.634</v>
       </c>
       <c r="M331">
-        <v>21</v>
+        <v>-90</v>
       </c>
       <c r="N331" t="s">
         <v>18</v>
       </c>
       <c r="O331">
-        <v>21</v>
+        <v>-90</v>
       </c>
       <c r="P331" t="s">
         <v>19</v>
@@ -17392,28 +17416,34 @@
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B332" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C332" s="2">
-        <v>44328</v>
+        <v>44287</v>
       </c>
       <c r="D332" s="2">
-        <v>44365</v>
+        <v>44337</v>
       </c>
       <c r="E332" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F332" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G332">
-        <v>11050</v>
+        <v>16000</v>
+      </c>
+      <c r="H332">
+        <v>13329.514999999999</v>
       </c>
       <c r="I332">
-        <v>68.349999999999994</v>
+        <v>3.65</v>
+      </c>
+      <c r="J332">
+        <v>20.03</v>
       </c>
       <c r="K332" s="2">
         <v>44328</v>
@@ -17422,13 +17452,13 @@
         <v>13001.634</v>
       </c>
       <c r="M332">
-        <v>6834.9999999999991</v>
+        <v>-365</v>
       </c>
       <c r="N332" t="s">
         <v>18</v>
       </c>
       <c r="O332">
-        <v>6834.9999999999991</v>
+        <v>-365</v>
       </c>
       <c r="P332" t="s">
         <v>19</v>
@@ -17436,28 +17466,34 @@
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B333" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C333" s="2">
-        <v>44328</v>
+        <v>44287</v>
       </c>
       <c r="D333" s="2">
-        <v>44365</v>
+        <v>44337</v>
       </c>
       <c r="E333" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F333" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G333">
-        <v>15175</v>
+        <v>12000</v>
+      </c>
+      <c r="H333">
+        <v>13329.514999999999</v>
       </c>
       <c r="I333">
-        <v>6.95</v>
+        <v>99.66</v>
+      </c>
+      <c r="J333">
+        <v>9.9700000000000006</v>
       </c>
       <c r="K333" s="2">
         <v>44328</v>
@@ -17466,13 +17502,13 @@
         <v>13001.634</v>
       </c>
       <c r="M333">
-        <v>-695</v>
+        <v>9966</v>
       </c>
       <c r="N333" t="s">
         <v>18</v>
       </c>
       <c r="O333">
-        <v>-695</v>
+        <v>9966</v>
       </c>
       <c r="P333" t="s">
         <v>19</v>
@@ -17480,16 +17516,16 @@
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B334" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C334" s="2">
-        <v>44319</v>
+        <v>44328</v>
       </c>
       <c r="D334" s="2">
-        <v>44365</v>
+        <v>44337</v>
       </c>
       <c r="E334" t="s">
         <v>21</v>
@@ -17498,16 +17534,10 @@
         <v>22</v>
       </c>
       <c r="G334">
-        <v>11050</v>
-      </c>
-      <c r="H334">
-        <v>13799.718999999999</v>
+        <v>12000</v>
       </c>
       <c r="I334">
-        <v>22.75</v>
-      </c>
-      <c r="J334">
-        <v>19.93</v>
+        <v>31.36</v>
       </c>
       <c r="K334" s="2">
         <v>44328</v>
@@ -17516,13 +17546,13 @@
         <v>13001.634</v>
       </c>
       <c r="M334">
-        <v>-2275</v>
+        <v>-3136</v>
       </c>
       <c r="N334" t="s">
         <v>18</v>
       </c>
       <c r="O334">
-        <v>-2275</v>
+        <v>-3136</v>
       </c>
       <c r="P334" t="s">
         <v>19</v>
@@ -17530,16 +17560,16 @@
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B335" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C335" s="2">
-        <v>44319</v>
+        <v>44328</v>
       </c>
       <c r="D335" s="2">
-        <v>44365</v>
+        <v>44337</v>
       </c>
       <c r="E335" t="s">
         <v>16</v>
@@ -17548,16 +17578,10 @@
         <v>17</v>
       </c>
       <c r="G335">
-        <v>15175</v>
-      </c>
-      <c r="H335">
-        <v>13799.718999999999</v>
+        <v>16000</v>
       </c>
       <c r="I335">
-        <v>22.8</v>
-      </c>
-      <c r="J335">
-        <v>9.9700000000000006</v>
+        <v>0.21</v>
       </c>
       <c r="K335" s="2">
         <v>44328</v>
@@ -17566,13 +17590,13 @@
         <v>13001.634</v>
       </c>
       <c r="M335">
-        <v>2280</v>
+        <v>21</v>
       </c>
       <c r="N335" t="s">
         <v>18</v>
       </c>
       <c r="O335">
-        <v>2280</v>
+        <v>21</v>
       </c>
       <c r="P335" t="s">
         <v>19</v>
@@ -17583,7 +17607,7 @@
         <v>6</v>
       </c>
       <c r="B336" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C336" s="2">
         <v>44328</v>
@@ -17595,13 +17619,13 @@
         <v>21</v>
       </c>
       <c r="F336" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G336">
-        <v>12425</v>
+        <v>11050</v>
       </c>
       <c r="I336">
-        <v>283.22000000000003</v>
+        <v>68.349999999999994</v>
       </c>
       <c r="K336" s="2">
         <v>44328</v>
@@ -17610,13 +17634,13 @@
         <v>13001.634</v>
       </c>
       <c r="M336">
-        <v>-28322</v>
+        <v>6834.9999999999991</v>
       </c>
       <c r="N336" t="s">
         <v>18</v>
       </c>
       <c r="O336">
-        <v>-28322</v>
+        <v>6834.9999999999991</v>
       </c>
       <c r="P336" t="s">
         <v>19</v>
@@ -17627,7 +17651,7 @@
         <v>5</v>
       </c>
       <c r="B337" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C337" s="2">
         <v>44328</v>
@@ -17639,13 +17663,13 @@
         <v>16</v>
       </c>
       <c r="F337" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G337">
-        <v>16550</v>
+        <v>15175</v>
       </c>
       <c r="I337">
-        <v>1.5</v>
+        <v>6.95</v>
       </c>
       <c r="K337" s="2">
         <v>44328</v>
@@ -17654,13 +17678,13 @@
         <v>13001.634</v>
       </c>
       <c r="M337">
-        <v>150</v>
+        <v>-695</v>
       </c>
       <c r="N337" t="s">
         <v>18</v>
       </c>
       <c r="O337">
-        <v>150</v>
+        <v>-695</v>
       </c>
       <c r="P337" t="s">
         <v>19</v>
@@ -17671,7 +17695,7 @@
         <v>16</v>
       </c>
       <c r="B338" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C338" s="2">
         <v>44319</v>
@@ -17683,19 +17707,19 @@
         <v>21</v>
       </c>
       <c r="F338" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G338">
-        <v>12425</v>
+        <v>11050</v>
       </c>
       <c r="H338">
         <v>13799.718999999999</v>
       </c>
       <c r="I338">
-        <v>96.85</v>
+        <v>22.75</v>
       </c>
       <c r="J338">
-        <v>9.9600000000000009</v>
+        <v>19.93</v>
       </c>
       <c r="K338" s="2">
         <v>44328</v>
@@ -17704,13 +17728,13 @@
         <v>13001.634</v>
       </c>
       <c r="M338">
-        <v>9685</v>
+        <v>-2275</v>
       </c>
       <c r="N338" t="s">
         <v>18</v>
       </c>
       <c r="O338">
-        <v>9685</v>
+        <v>-2275</v>
       </c>
       <c r="P338" t="s">
         <v>19</v>
@@ -17721,7 +17745,7 @@
         <v>6</v>
       </c>
       <c r="B339" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C339" s="2">
         <v>44319</v>
@@ -17733,19 +17757,19 @@
         <v>16</v>
       </c>
       <c r="F339" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G339">
-        <v>16550</v>
+        <v>15175</v>
       </c>
       <c r="H339">
         <v>13799.718999999999</v>
       </c>
       <c r="I339">
-        <v>3.05</v>
+        <v>22.8</v>
       </c>
       <c r="J339">
-        <v>19.93</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="K339" s="2">
         <v>44328</v>
@@ -17754,13 +17778,13 @@
         <v>13001.634</v>
       </c>
       <c r="M339">
-        <v>-305</v>
+        <v>2280</v>
       </c>
       <c r="N339" t="s">
         <v>18</v>
       </c>
       <c r="O339">
-        <v>-305</v>
+        <v>2280</v>
       </c>
       <c r="P339" t="s">
         <v>19</v>
@@ -17768,16 +17792,16 @@
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B340" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="C340" s="2">
-        <v>44348</v>
+        <v>44328</v>
       </c>
       <c r="D340" s="2">
-        <v>44393</v>
+        <v>44365</v>
       </c>
       <c r="E340" t="s">
         <v>21</v>
@@ -17786,31 +17810,25 @@
         <v>22</v>
       </c>
       <c r="G340">
-        <v>10925</v>
-      </c>
-      <c r="H340">
-        <v>13654.589</v>
+        <v>12425</v>
       </c>
       <c r="I340">
-        <v>25.8</v>
-      </c>
-      <c r="J340">
-        <v>19.989999999999998</v>
+        <v>283.22000000000003</v>
       </c>
       <c r="K340" s="2">
-        <v>44393</v>
+        <v>44328</v>
       </c>
       <c r="L340">
-        <v>14681.377</v>
+        <v>13001.634</v>
       </c>
       <c r="M340">
-        <v>-2580</v>
+        <v>-28322</v>
       </c>
       <c r="N340" t="s">
         <v>18</v>
       </c>
       <c r="O340">
-        <v>-2580</v>
+        <v>-28322</v>
       </c>
       <c r="P340" t="s">
         <v>19</v>
@@ -17818,16 +17836,16 @@
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B341" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C341" s="2">
-        <v>44348</v>
+        <v>44328</v>
       </c>
       <c r="D341" s="2">
-        <v>44393</v>
+        <v>44365</v>
       </c>
       <c r="E341" t="s">
         <v>16</v>
@@ -17836,31 +17854,25 @@
         <v>17</v>
       </c>
       <c r="G341">
-        <v>15025</v>
-      </c>
-      <c r="H341">
-        <v>13654.589</v>
+        <v>16550</v>
       </c>
       <c r="I341">
-        <v>17</v>
-      </c>
-      <c r="J341">
-        <v>10.039999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="K341" s="2">
-        <v>44393</v>
+        <v>44328</v>
       </c>
       <c r="L341">
-        <v>14681.377</v>
+        <v>13001.634</v>
       </c>
       <c r="M341">
-        <v>1700</v>
+        <v>150</v>
       </c>
       <c r="N341" t="s">
         <v>18</v>
       </c>
       <c r="O341">
-        <v>1700</v>
+        <v>150</v>
       </c>
       <c r="P341" t="s">
         <v>19</v>
@@ -17868,16 +17880,16 @@
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B342" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C342" s="2">
-        <v>44348</v>
+        <v>44319</v>
       </c>
       <c r="D342" s="2">
-        <v>44393</v>
+        <v>44365</v>
       </c>
       <c r="E342" t="s">
         <v>21</v>
@@ -17886,31 +17898,31 @@
         <v>17</v>
       </c>
       <c r="G342">
-        <v>12300</v>
+        <v>12425</v>
       </c>
       <c r="H342">
-        <v>13654.589</v>
+        <v>13799.718999999999</v>
       </c>
       <c r="I342">
-        <v>89.8</v>
+        <v>96.85</v>
       </c>
       <c r="J342">
-        <v>9.92</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="K342" s="2">
-        <v>44393</v>
+        <v>44328</v>
       </c>
       <c r="L342">
-        <v>14681.377</v>
+        <v>13001.634</v>
       </c>
       <c r="M342">
-        <v>8980</v>
+        <v>9685</v>
       </c>
       <c r="N342" t="s">
         <v>18</v>
       </c>
       <c r="O342">
-        <v>8980</v>
+        <v>9685</v>
       </c>
       <c r="P342" t="s">
         <v>19</v>
@@ -17918,16 +17930,16 @@
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C343" s="2">
-        <v>44348</v>
+        <v>44319</v>
       </c>
       <c r="D343" s="2">
-        <v>44393</v>
+        <v>44365</v>
       </c>
       <c r="E343" t="s">
         <v>16</v>
@@ -17936,31 +17948,31 @@
         <v>22</v>
       </c>
       <c r="G343">
-        <v>16375</v>
+        <v>16550</v>
       </c>
       <c r="H343">
-        <v>13654.589</v>
+        <v>13799.718999999999</v>
       </c>
       <c r="I343">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="J343">
-        <v>19.920000000000002</v>
+        <v>19.93</v>
       </c>
       <c r="K343" s="2">
-        <v>44393</v>
+        <v>44328</v>
       </c>
       <c r="L343">
-        <v>14681.377</v>
+        <v>13001.634</v>
       </c>
       <c r="M343">
-        <v>-252</v>
+        <v>-305</v>
       </c>
       <c r="N343" t="s">
         <v>18</v>
       </c>
       <c r="O343">
-        <v>-252</v>
+        <v>-305</v>
       </c>
       <c r="P343" t="s">
         <v>19</v>
@@ -17968,49 +17980,49 @@
     </row>
     <row r="344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B344" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C344" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="D344" s="2">
-        <v>44428</v>
+        <v>44393</v>
       </c>
       <c r="E344" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F344" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G344">
-        <v>16025</v>
+        <v>10925</v>
       </c>
       <c r="H344">
-        <v>14560.054</v>
+        <v>13654.589</v>
       </c>
       <c r="I344">
-        <v>14.7</v>
+        <v>25.8</v>
       </c>
       <c r="J344">
-        <v>10.06</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="K344" s="2">
-        <v>44428</v>
+        <v>44393</v>
       </c>
       <c r="L344">
-        <v>15092.567999999999</v>
+        <v>14681.377</v>
       </c>
       <c r="M344">
-        <v>1470</v>
+        <v>-2580</v>
       </c>
       <c r="N344" t="s">
         <v>18</v>
       </c>
       <c r="O344">
-        <v>1470</v>
+        <v>-2580</v>
       </c>
       <c r="P344" t="s">
         <v>19</v>
@@ -18018,49 +18030,49 @@
     </row>
     <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B345" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C345" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="D345" s="2">
-        <v>44428</v>
+        <v>44393</v>
       </c>
       <c r="E345" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F345" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G345">
-        <v>11650</v>
+        <v>15025</v>
       </c>
       <c r="H345">
-        <v>14560.054</v>
+        <v>13654.589</v>
       </c>
       <c r="I345">
-        <v>27.4</v>
+        <v>17</v>
       </c>
       <c r="J345">
-        <v>19.989999999999998</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="K345" s="2">
-        <v>44428</v>
+        <v>44393</v>
       </c>
       <c r="L345">
-        <v>15092.567999999999</v>
+        <v>14681.377</v>
       </c>
       <c r="M345">
-        <v>-2740</v>
+        <v>1700</v>
       </c>
       <c r="N345" t="s">
         <v>18</v>
       </c>
       <c r="O345">
-        <v>-2740</v>
+        <v>1700</v>
       </c>
       <c r="P345" t="s">
         <v>19</v>
@@ -18068,49 +18080,49 @@
     </row>
     <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B346" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C346" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="D346" s="2">
-        <v>44428</v>
+        <v>44393</v>
       </c>
       <c r="E346" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F346" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G346">
-        <v>17475</v>
+        <v>12300</v>
       </c>
       <c r="H346">
-        <v>14560.054</v>
+        <v>13654.589</v>
       </c>
       <c r="I346">
-        <v>1.93</v>
+        <v>89.8</v>
       </c>
       <c r="J346">
-        <v>20.02</v>
+        <v>9.92</v>
       </c>
       <c r="K346" s="2">
-        <v>44428</v>
+        <v>44393</v>
       </c>
       <c r="L346">
-        <v>15092.567999999999</v>
+        <v>14681.377</v>
       </c>
       <c r="M346">
-        <v>-193</v>
+        <v>8980</v>
       </c>
       <c r="N346" t="s">
         <v>18</v>
       </c>
       <c r="O346">
-        <v>-193</v>
+        <v>8980</v>
       </c>
       <c r="P346" t="s">
         <v>19</v>
@@ -18118,49 +18130,49 @@
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B347" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C347" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="D347" s="2">
-        <v>44428</v>
+        <v>44393</v>
       </c>
       <c r="E347" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F347" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G347">
-        <v>13100</v>
+        <v>16375</v>
       </c>
       <c r="H347">
-        <v>14560.054</v>
+        <v>13654.589</v>
       </c>
       <c r="I347">
-        <v>82.2</v>
+        <v>2.52</v>
       </c>
       <c r="J347">
-        <v>10.029999999999999</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="K347" s="2">
-        <v>44428</v>
+        <v>44393</v>
       </c>
       <c r="L347">
-        <v>15092.567999999999</v>
+        <v>14681.377</v>
       </c>
       <c r="M347">
-        <v>8220</v>
+        <v>-252</v>
       </c>
       <c r="N347" t="s">
         <v>18</v>
       </c>
       <c r="O347">
-        <v>8220</v>
+        <v>-252</v>
       </c>
       <c r="P347" t="s">
         <v>19</v>
@@ -18168,49 +18180,49 @@
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B348" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C348" s="2">
-        <v>44410</v>
+        <v>44378</v>
       </c>
       <c r="D348" s="2">
-        <v>44456</v>
+        <v>44428</v>
       </c>
       <c r="E348" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F348" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G348">
-        <v>11975</v>
+        <v>16025</v>
       </c>
       <c r="H348">
-        <v>14963.624</v>
+        <v>14560.054</v>
       </c>
       <c r="I348">
-        <v>28.5</v>
+        <v>14.7</v>
       </c>
       <c r="J348">
-        <v>19.97</v>
+        <v>10.06</v>
       </c>
       <c r="K348" s="2">
-        <v>44456</v>
+        <v>44428</v>
       </c>
       <c r="L348">
-        <v>15333.471</v>
+        <v>15092.567999999999</v>
       </c>
       <c r="M348">
-        <v>-2850</v>
+        <v>1470</v>
       </c>
       <c r="N348" t="s">
         <v>18</v>
       </c>
       <c r="O348">
-        <v>-2850</v>
+        <v>1470</v>
       </c>
       <c r="P348" t="s">
         <v>19</v>
@@ -18218,49 +18230,49 @@
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B349" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C349" s="2">
-        <v>44410</v>
+        <v>44378</v>
       </c>
       <c r="D349" s="2">
-        <v>44456</v>
+        <v>44428</v>
       </c>
       <c r="E349" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F349" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G349">
-        <v>16450</v>
+        <v>11650</v>
       </c>
       <c r="H349">
-        <v>14963.624</v>
+        <v>14560.054</v>
       </c>
       <c r="I349">
-        <v>11.9</v>
+        <v>27.4</v>
       </c>
       <c r="J349">
-        <v>9.93</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="K349" s="2">
-        <v>44456</v>
+        <v>44428</v>
       </c>
       <c r="L349">
-        <v>15333.471</v>
+        <v>15092.567999999999</v>
       </c>
       <c r="M349">
-        <v>1190</v>
+        <v>-2740</v>
       </c>
       <c r="N349" t="s">
         <v>18</v>
       </c>
       <c r="O349">
-        <v>1190</v>
+        <v>-2740</v>
       </c>
       <c r="P349" t="s">
         <v>19</v>
@@ -18268,49 +18280,49 @@
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B350" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C350" s="2">
-        <v>44410</v>
+        <v>44378</v>
       </c>
       <c r="D350" s="2">
-        <v>44456</v>
+        <v>44428</v>
       </c>
       <c r="E350" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F350" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G350">
-        <v>13475</v>
+        <v>17475</v>
       </c>
       <c r="H350">
-        <v>14963.624</v>
+        <v>14560.054</v>
       </c>
       <c r="I350">
-        <v>92.55</v>
+        <v>1.93</v>
       </c>
       <c r="J350">
-        <v>9.9499999999999993</v>
+        <v>20.02</v>
       </c>
       <c r="K350" s="2">
-        <v>44456</v>
+        <v>44428</v>
       </c>
       <c r="L350">
-        <v>15333.471</v>
+        <v>15092.567999999999</v>
       </c>
       <c r="M350">
-        <v>9255</v>
+        <v>-193</v>
       </c>
       <c r="N350" t="s">
         <v>18</v>
       </c>
       <c r="O350">
-        <v>9255</v>
+        <v>-193</v>
       </c>
       <c r="P350" t="s">
         <v>19</v>
@@ -18318,49 +18330,49 @@
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B351" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C351" s="2">
-        <v>44410</v>
+        <v>44378</v>
       </c>
       <c r="D351" s="2">
-        <v>44456</v>
+        <v>44428</v>
       </c>
       <c r="E351" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F351" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G351">
-        <v>17950</v>
+        <v>13100</v>
       </c>
       <c r="H351">
-        <v>14963.624</v>
+        <v>14560.054</v>
       </c>
       <c r="I351">
-        <v>1.1499999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="J351">
-        <v>19.96</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="K351" s="2">
-        <v>44456</v>
+        <v>44428</v>
       </c>
       <c r="L351">
-        <v>15333.471</v>
+        <v>15092.567999999999</v>
       </c>
       <c r="M351">
-        <v>-115</v>
+        <v>8220</v>
       </c>
       <c r="N351" t="s">
         <v>18</v>
       </c>
       <c r="O351">
-        <v>-115</v>
+        <v>8220</v>
       </c>
       <c r="P351" t="s">
         <v>19</v>
@@ -18368,49 +18380,49 @@
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B352" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C352" s="2">
-        <v>44440</v>
+        <v>44410</v>
       </c>
       <c r="D352" s="2">
-        <v>44484</v>
+        <v>44456</v>
       </c>
       <c r="E352" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F352" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G352">
-        <v>17175</v>
+        <v>11975</v>
       </c>
       <c r="H352">
-        <v>15611.565000000001</v>
+        <v>14963.624</v>
       </c>
       <c r="I352">
-        <v>6.85</v>
+        <v>28.5</v>
       </c>
       <c r="J352">
-        <v>10.01</v>
+        <v>19.97</v>
       </c>
       <c r="K352" s="2">
-        <v>44484</v>
+        <v>44456</v>
       </c>
       <c r="L352">
-        <v>15146.921</v>
+        <v>15333.471</v>
       </c>
       <c r="M352">
-        <v>685</v>
+        <v>-2850</v>
       </c>
       <c r="N352" t="s">
         <v>18</v>
       </c>
       <c r="O352">
-        <v>685</v>
+        <v>-2850</v>
       </c>
       <c r="P352" t="s">
         <v>19</v>
@@ -18418,49 +18430,49 @@
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B353" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C353" s="2">
-        <v>44440</v>
+        <v>44410</v>
       </c>
       <c r="D353" s="2">
-        <v>44484</v>
+        <v>44456</v>
       </c>
       <c r="E353" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F353" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G353">
-        <v>12500</v>
+        <v>16450</v>
       </c>
       <c r="H353">
-        <v>15611.565000000001</v>
+        <v>14963.624</v>
       </c>
       <c r="I353">
-        <v>26.2</v>
+        <v>11.9</v>
       </c>
       <c r="J353">
-        <v>19.93</v>
+        <v>9.93</v>
       </c>
       <c r="K353" s="2">
-        <v>44484</v>
+        <v>44456</v>
       </c>
       <c r="L353">
-        <v>15146.921</v>
+        <v>15333.471</v>
       </c>
       <c r="M353">
-        <v>-2620</v>
+        <v>1190</v>
       </c>
       <c r="N353" t="s">
         <v>18</v>
       </c>
       <c r="O353">
-        <v>-2620</v>
+        <v>1190</v>
       </c>
       <c r="P353" t="s">
         <v>19</v>
@@ -18468,49 +18480,49 @@
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B354" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C354" s="2">
-        <v>44440</v>
+        <v>44410</v>
       </c>
       <c r="D354" s="2">
-        <v>44484</v>
+        <v>44456</v>
       </c>
       <c r="E354" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F354" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G354">
-        <v>18725</v>
+        <v>13475</v>
       </c>
       <c r="H354">
-        <v>15611.565000000001</v>
+        <v>14963.624</v>
       </c>
       <c r="I354">
-        <v>1.65</v>
+        <v>92.55</v>
       </c>
       <c r="J354">
-        <v>19.940000000000001</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="K354" s="2">
-        <v>44484</v>
+        <v>44456</v>
       </c>
       <c r="L354">
-        <v>15146.921</v>
+        <v>15333.471</v>
       </c>
       <c r="M354">
-        <v>-165</v>
+        <v>9255</v>
       </c>
       <c r="N354" t="s">
         <v>18</v>
       </c>
       <c r="O354">
-        <v>-165</v>
+        <v>9255</v>
       </c>
       <c r="P354" t="s">
         <v>19</v>
@@ -18518,57 +18530,257 @@
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>301</v>
+      </c>
+      <c r="C355" s="2">
+        <v>44410</v>
+      </c>
+      <c r="D355" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E355" t="s">
+        <v>16</v>
+      </c>
+      <c r="F355" t="s">
+        <v>22</v>
+      </c>
+      <c r="G355">
+        <v>17950</v>
+      </c>
+      <c r="H355">
+        <v>14963.624</v>
+      </c>
+      <c r="I355">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J355">
+        <v>19.96</v>
+      </c>
+      <c r="K355" s="2">
+        <v>44456</v>
+      </c>
+      <c r="L355">
+        <v>15333.471</v>
+      </c>
+      <c r="M355">
+        <v>-115</v>
+      </c>
+      <c r="N355" t="s">
+        <v>18</v>
+      </c>
+      <c r="O355">
+        <v>-115</v>
+      </c>
+      <c r="P355" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>10</v>
+      </c>
+      <c r="B356" t="s">
+        <v>282</v>
+      </c>
+      <c r="C356" s="2">
+        <v>44440</v>
+      </c>
+      <c r="D356" s="2">
+        <v>44484</v>
+      </c>
+      <c r="E356" t="s">
+        <v>16</v>
+      </c>
+      <c r="F356" t="s">
+        <v>17</v>
+      </c>
+      <c r="G356">
+        <v>17175</v>
+      </c>
+      <c r="H356">
+        <v>15611.565000000001</v>
+      </c>
+      <c r="I356">
+        <v>6.85</v>
+      </c>
+      <c r="J356">
+        <v>10.01</v>
+      </c>
+      <c r="K356" s="2">
+        <v>44484</v>
+      </c>
+      <c r="L356">
+        <v>15146.921</v>
+      </c>
+      <c r="M356">
+        <v>685</v>
+      </c>
+      <c r="N356" t="s">
+        <v>18</v>
+      </c>
+      <c r="O356">
+        <v>685</v>
+      </c>
+      <c r="P356" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
         <v>20</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B357" t="s">
+        <v>283</v>
+      </c>
+      <c r="C357" s="2">
+        <v>44440</v>
+      </c>
+      <c r="D357" s="2">
+        <v>44484</v>
+      </c>
+      <c r="E357" t="s">
+        <v>21</v>
+      </c>
+      <c r="F357" t="s">
+        <v>22</v>
+      </c>
+      <c r="G357">
+        <v>12500</v>
+      </c>
+      <c r="H357">
+        <v>15611.565000000001</v>
+      </c>
+      <c r="I357">
+        <v>26.2</v>
+      </c>
+      <c r="J357">
+        <v>19.93</v>
+      </c>
+      <c r="K357" s="2">
+        <v>44484</v>
+      </c>
+      <c r="L357">
+        <v>15146.921</v>
+      </c>
+      <c r="M357">
+        <v>-2620</v>
+      </c>
+      <c r="N357" t="s">
+        <v>18</v>
+      </c>
+      <c r="O357">
+        <v>-2620</v>
+      </c>
+      <c r="P357" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>10</v>
+      </c>
+      <c r="B358" t="s">
+        <v>302</v>
+      </c>
+      <c r="C358" s="2">
+        <v>44440</v>
+      </c>
+      <c r="D358" s="2">
+        <v>44484</v>
+      </c>
+      <c r="E358" t="s">
+        <v>16</v>
+      </c>
+      <c r="F358" t="s">
+        <v>22</v>
+      </c>
+      <c r="G358">
+        <v>18725</v>
+      </c>
+      <c r="H358">
+        <v>15611.565000000001</v>
+      </c>
+      <c r="I358">
+        <v>1.65</v>
+      </c>
+      <c r="J358">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="K358" s="2">
+        <v>44484</v>
+      </c>
+      <c r="L358">
+        <v>15146.921</v>
+      </c>
+      <c r="M358">
+        <v>-165</v>
+      </c>
+      <c r="N358" t="s">
+        <v>18</v>
+      </c>
+      <c r="O358">
+        <v>-165</v>
+      </c>
+      <c r="P358" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>20</v>
+      </c>
+      <c r="B359" t="s">
         <v>303</v>
       </c>
-      <c r="C355" s="2">
+      <c r="C359" s="2">
         <v>44440</v>
       </c>
-      <c r="D355" s="2">
+      <c r="D359" s="2">
         <v>44484</v>
       </c>
-      <c r="E355" t="s">
-        <v>21</v>
-      </c>
-      <c r="F355" t="s">
-        <v>17</v>
-      </c>
-      <c r="G355">
+      <c r="E359" t="s">
+        <v>21</v>
+      </c>
+      <c r="F359" t="s">
+        <v>17</v>
+      </c>
+      <c r="G359">
         <v>14050</v>
       </c>
-      <c r="H355">
+      <c r="H359">
         <v>15611.565000000001</v>
       </c>
-      <c r="I355">
+      <c r="I359">
         <v>77.849999999999994</v>
       </c>
-      <c r="J355">
+      <c r="J359">
         <v>10</v>
       </c>
-      <c r="K355" s="2">
+      <c r="K359" s="2">
         <v>44484</v>
       </c>
-      <c r="L355">
+      <c r="L359">
         <v>15146.921</v>
       </c>
-      <c r="M355">
+      <c r="M359">
         <v>7784.9999999999991</v>
       </c>
-      <c r="N355" t="s">
-        <v>18</v>
-      </c>
-      <c r="O355">
+      <c r="N359" t="s">
+        <v>18</v>
+      </c>
+      <c r="O359">
         <v>7784.9999999999991</v>
       </c>
-      <c r="P355" t="s">
+      <c r="P359" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P355">
-    <sortCondition ref="D1:D355"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P359">
+    <sortCondition ref="D1:D359"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
